--- a/CARGA NUEVOS ETFs SQL 2020.xlsx
+++ b/CARGA NUEVOS ETFs SQL 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cabi1.sharepoint.com/sites/DataBases/Documentos compartidos/Weekly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lijv1.LINDA_HP\Documents\GitHub\Financial_Workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="13_ncr:1_{9669E75A-1BA8-4790-A82A-EF18E279AB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F2888B2-3491-4DDD-9B90-4D7309BB434F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A502775-A337-45F1-BB06-D5449477BF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="4410" windowWidth="21600" windowHeight="10425" activeTab="4" xr2:uid="{0D62F74E-08C5-4779-AAF2-4C1900F34D34}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{0D62F74E-08C5-4779-AAF2-4C1900F34D34}"/>
   </bookViews>
   <sheets>
     <sheet name="CARGA" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tickers!$A$1:$D$401</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TickersDownload!$A$1:$E$265</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="682">
   <si>
     <t>iShs MSCI Canada ETF</t>
   </si>
@@ -2086,6 +2086,12 @@
   </si>
   <si>
     <t>CSC=F</t>
+  </si>
+  <si>
+    <t>ZM=F</t>
+  </si>
+  <si>
+    <t>S&amp;P Composite 1500 ESG Tilted I</t>
   </si>
 </sst>
 </file>
@@ -2184,7 +2190,7 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2224,7 +2230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2526,7 +2532,7 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.28515625" bestFit="1" customWidth="1"/>
@@ -6323,7 +6329,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -6337,7 +6343,7 @@
       </c>
       <c r="B1" s="3">
         <f ca="1">+TODAY()</f>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="D1" s="3">
         <v>44358</v>
@@ -6383,7 +6389,7 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">+$B$1</f>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F4">
         <f>+CARGA!B1</f>
@@ -6416,7 +6422,7 @@
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E68" ca="1" si="0">+$B$1</f>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F5">
         <f>+CARGA!B2</f>
@@ -6449,7 +6455,7 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F6">
         <f>+CARGA!B3</f>
@@ -6482,7 +6488,7 @@
       </c>
       <c r="E7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F7">
         <f>+CARGA!B4</f>
@@ -6515,7 +6521,7 @@
       </c>
       <c r="E8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F8">
         <f>+CARGA!B5</f>
@@ -6548,7 +6554,7 @@
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F9">
         <f>+CARGA!B6</f>
@@ -6581,7 +6587,7 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F10">
         <f>+CARGA!B7</f>
@@ -6614,7 +6620,7 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F11">
         <f>+CARGA!B8</f>
@@ -6647,7 +6653,7 @@
       </c>
       <c r="E12" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F12">
         <f>+CARGA!B9</f>
@@ -6680,7 +6686,7 @@
       </c>
       <c r="E13" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F13">
         <f>+CARGA!B10</f>
@@ -6713,7 +6719,7 @@
       </c>
       <c r="E14" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F14">
         <f>+CARGA!B11</f>
@@ -6746,7 +6752,7 @@
       </c>
       <c r="E15" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F15">
         <f>+CARGA!B12</f>
@@ -6779,7 +6785,7 @@
       </c>
       <c r="E16" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F16">
         <f>+CARGA!B13</f>
@@ -6812,7 +6818,7 @@
       </c>
       <c r="E17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F17">
         <f>+CARGA!B14</f>
@@ -6845,7 +6851,7 @@
       </c>
       <c r="E18" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F18">
         <f>+CARGA!B15</f>
@@ -6878,7 +6884,7 @@
       </c>
       <c r="E19" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F19">
         <f>+CARGA!B16</f>
@@ -6911,7 +6917,7 @@
       </c>
       <c r="E20" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F20">
         <f>+CARGA!B17</f>
@@ -6944,7 +6950,7 @@
       </c>
       <c r="E21" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F21">
         <f>+CARGA!B18</f>
@@ -6977,7 +6983,7 @@
       </c>
       <c r="E22" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F22">
         <f>+CARGA!B19</f>
@@ -7010,7 +7016,7 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F23">
         <f>+CARGA!B20</f>
@@ -7043,7 +7049,7 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F24">
         <f>+CARGA!B21</f>
@@ -7076,7 +7082,7 @@
       </c>
       <c r="E25" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F25">
         <f>+CARGA!B22</f>
@@ -7109,7 +7115,7 @@
       </c>
       <c r="E26" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F26">
         <f>+CARGA!B23</f>
@@ -7142,7 +7148,7 @@
       </c>
       <c r="E27" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F27">
         <f>+CARGA!B24</f>
@@ -7175,7 +7181,7 @@
       </c>
       <c r="E28" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F28">
         <f>+CARGA!B25</f>
@@ -7208,7 +7214,7 @@
       </c>
       <c r="E29" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F29">
         <f>+CARGA!B26</f>
@@ -7241,7 +7247,7 @@
       </c>
       <c r="E30" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F30">
         <f>+CARGA!B27</f>
@@ -7274,7 +7280,7 @@
       </c>
       <c r="E31" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F31">
         <f>+CARGA!B28</f>
@@ -7307,7 +7313,7 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F32">
         <f>+CARGA!B29</f>
@@ -7340,7 +7346,7 @@
       </c>
       <c r="E33" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F33">
         <f>+CARGA!B30</f>
@@ -7373,7 +7379,7 @@
       </c>
       <c r="E34" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F34">
         <f>+CARGA!B31</f>
@@ -7406,7 +7412,7 @@
       </c>
       <c r="E35" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F35">
         <f>+CARGA!B32</f>
@@ -7439,7 +7445,7 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F36">
         <f>+CARGA!B33</f>
@@ -7472,7 +7478,7 @@
       </c>
       <c r="E37" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F37">
         <f>+CARGA!B34</f>
@@ -7505,7 +7511,7 @@
       </c>
       <c r="E38" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F38">
         <f>+CARGA!B35</f>
@@ -7538,7 +7544,7 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F39">
         <f>+CARGA!B36</f>
@@ -7571,7 +7577,7 @@
       </c>
       <c r="E40" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F40">
         <f>+CARGA!B37</f>
@@ -7604,7 +7610,7 @@
       </c>
       <c r="E41" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F41">
         <f>+CARGA!B38</f>
@@ -7637,7 +7643,7 @@
       </c>
       <c r="E42" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F42">
         <f>+CARGA!B39</f>
@@ -7670,7 +7676,7 @@
       </c>
       <c r="E43" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F43">
         <f>+CARGA!B40</f>
@@ -7703,7 +7709,7 @@
       </c>
       <c r="E44" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F44">
         <f>+CARGA!B41</f>
@@ -7736,7 +7742,7 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F45">
         <f>+CARGA!B42</f>
@@ -7769,7 +7775,7 @@
       </c>
       <c r="E46" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F46">
         <f>+CARGA!B43</f>
@@ -7802,7 +7808,7 @@
       </c>
       <c r="E47" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F47">
         <f>+CARGA!B44</f>
@@ -7835,7 +7841,7 @@
       </c>
       <c r="E48" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F48">
         <f>+CARGA!B45</f>
@@ -7868,7 +7874,7 @@
       </c>
       <c r="E49" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F49">
         <f>+CARGA!B46</f>
@@ -7901,7 +7907,7 @@
       </c>
       <c r="E50" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F50">
         <f>+CARGA!B47</f>
@@ -7934,7 +7940,7 @@
       </c>
       <c r="E51" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F51">
         <f>+CARGA!B48</f>
@@ -7967,7 +7973,7 @@
       </c>
       <c r="E52" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F52">
         <f>+CARGA!B49</f>
@@ -8000,7 +8006,7 @@
       </c>
       <c r="E53" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F53">
         <f>+CARGA!B50</f>
@@ -8033,7 +8039,7 @@
       </c>
       <c r="E54" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F54">
         <f>+CARGA!B51</f>
@@ -8066,7 +8072,7 @@
       </c>
       <c r="E55" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F55">
         <f>+CARGA!B52</f>
@@ -8099,7 +8105,7 @@
       </c>
       <c r="E56" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F56">
         <f>+CARGA!B53</f>
@@ -8132,7 +8138,7 @@
       </c>
       <c r="E57" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F57">
         <f>+CARGA!B54</f>
@@ -8165,7 +8171,7 @@
       </c>
       <c r="E58" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F58">
         <f>+CARGA!B55</f>
@@ -8198,7 +8204,7 @@
       </c>
       <c r="E59" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F59">
         <f>+CARGA!B56</f>
@@ -8231,7 +8237,7 @@
       </c>
       <c r="E60" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F60">
         <f>+CARGA!B57</f>
@@ -8264,7 +8270,7 @@
       </c>
       <c r="E61" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F61">
         <f>+CARGA!B58</f>
@@ -8297,7 +8303,7 @@
       </c>
       <c r="E62" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F62">
         <f>+CARGA!B59</f>
@@ -8330,7 +8336,7 @@
       </c>
       <c r="E63" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F63">
         <f>+CARGA!B60</f>
@@ -8363,7 +8369,7 @@
       </c>
       <c r="E64" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F64">
         <f>+CARGA!B61</f>
@@ -8396,7 +8402,7 @@
       </c>
       <c r="E65" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F65">
         <f>+CARGA!B62</f>
@@ -8429,7 +8435,7 @@
       </c>
       <c r="E66" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F66">
         <f>+CARGA!B63</f>
@@ -8462,7 +8468,7 @@
       </c>
       <c r="E67" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F67">
         <f>+CARGA!B64</f>
@@ -8495,7 +8501,7 @@
       </c>
       <c r="E68" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F68">
         <f>+CARGA!B65</f>
@@ -8528,7 +8534,7 @@
       </c>
       <c r="E69" s="7">
         <f t="shared" ref="E69:E132" ca="1" si="1">+$B$1</f>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F69">
         <f>+CARGA!B66</f>
@@ -8561,7 +8567,7 @@
       </c>
       <c r="E70" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F70">
         <f>+CARGA!B67</f>
@@ -8594,7 +8600,7 @@
       </c>
       <c r="E71" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F71">
         <f>+CARGA!B68</f>
@@ -8627,7 +8633,7 @@
       </c>
       <c r="E72" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F72">
         <f>+CARGA!B69</f>
@@ -8660,7 +8666,7 @@
       </c>
       <c r="E73" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F73">
         <f>+CARGA!B70</f>
@@ -8693,7 +8699,7 @@
       </c>
       <c r="E74" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F74">
         <f>+CARGA!B71</f>
@@ -8726,7 +8732,7 @@
       </c>
       <c r="E75" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F75">
         <f>+CARGA!B72</f>
@@ -8759,7 +8765,7 @@
       </c>
       <c r="E76" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F76">
         <f>+CARGA!B73</f>
@@ -8792,7 +8798,7 @@
       </c>
       <c r="E77" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F77">
         <f>+CARGA!B74</f>
@@ -8825,7 +8831,7 @@
       </c>
       <c r="E78" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F78">
         <f>+CARGA!B75</f>
@@ -8858,7 +8864,7 @@
       </c>
       <c r="E79" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F79">
         <f>+CARGA!B76</f>
@@ -8891,7 +8897,7 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F80">
         <f>+CARGA!B77</f>
@@ -8924,7 +8930,7 @@
       </c>
       <c r="E81" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F81">
         <f>+CARGA!B78</f>
@@ -8957,7 +8963,7 @@
       </c>
       <c r="E82" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F82">
         <f>+CARGA!B79</f>
@@ -8990,7 +8996,7 @@
       </c>
       <c r="E83" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F83">
         <f>+CARGA!B80</f>
@@ -9023,7 +9029,7 @@
       </c>
       <c r="E84" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F84">
         <f>+CARGA!B81</f>
@@ -9056,7 +9062,7 @@
       </c>
       <c r="E85" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F85">
         <f>+CARGA!B82</f>
@@ -9089,7 +9095,7 @@
       </c>
       <c r="E86" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F86">
         <f>+CARGA!B83</f>
@@ -9122,7 +9128,7 @@
       </c>
       <c r="E87" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F87">
         <f>+CARGA!B84</f>
@@ -9155,7 +9161,7 @@
       </c>
       <c r="E88" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F88">
         <f>+CARGA!B85</f>
@@ -9188,7 +9194,7 @@
       </c>
       <c r="E89" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F89">
         <f>+CARGA!B86</f>
@@ -9221,7 +9227,7 @@
       </c>
       <c r="E90" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F90">
         <f>+CARGA!B87</f>
@@ -9254,7 +9260,7 @@
       </c>
       <c r="E91" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F91">
         <f>+CARGA!B88</f>
@@ -9287,7 +9293,7 @@
       </c>
       <c r="E92" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F92">
         <f>+CARGA!B89</f>
@@ -9320,7 +9326,7 @@
       </c>
       <c r="E93" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F93">
         <f>+CARGA!B90</f>
@@ -9353,7 +9359,7 @@
       </c>
       <c r="E94" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F94">
         <f>+CARGA!B91</f>
@@ -9386,7 +9392,7 @@
       </c>
       <c r="E95" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F95">
         <f>+CARGA!B92</f>
@@ -9419,7 +9425,7 @@
       </c>
       <c r="E96" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F96">
         <f>+CARGA!B93</f>
@@ -9452,7 +9458,7 @@
       </c>
       <c r="E97" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F97">
         <f>+CARGA!B94</f>
@@ -9485,7 +9491,7 @@
       </c>
       <c r="E98" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F98">
         <f>+CARGA!B95</f>
@@ -9518,7 +9524,7 @@
       </c>
       <c r="E99" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F99">
         <f>+CARGA!B96</f>
@@ -9551,7 +9557,7 @@
       </c>
       <c r="E100" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F100">
         <f>+CARGA!B97</f>
@@ -9584,7 +9590,7 @@
       </c>
       <c r="E101" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F101">
         <f>+CARGA!B98</f>
@@ -9617,7 +9623,7 @@
       </c>
       <c r="E102" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F102">
         <f>+CARGA!B99</f>
@@ -9650,7 +9656,7 @@
       </c>
       <c r="E103" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F103">
         <f>+CARGA!B100</f>
@@ -9683,7 +9689,7 @@
       </c>
       <c r="E104" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F104">
         <f>+CARGA!B101</f>
@@ -9716,7 +9722,7 @@
       </c>
       <c r="E105" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F105">
         <f>+CARGA!B102</f>
@@ -9749,7 +9755,7 @@
       </c>
       <c r="E106" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F106">
         <f>+CARGA!B104</f>
@@ -9782,7 +9788,7 @@
       </c>
       <c r="E107" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F107">
         <f>+CARGA!B105</f>
@@ -9815,7 +9821,7 @@
       </c>
       <c r="E108" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F108">
         <f>+CARGA!B106</f>
@@ -9848,7 +9854,7 @@
       </c>
       <c r="E109" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F109">
         <f>+CARGA!B107</f>
@@ -9881,7 +9887,7 @@
       </c>
       <c r="E110" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F110">
         <f>+CARGA!B108</f>
@@ -9914,7 +9920,7 @@
       </c>
       <c r="E111" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F111">
         <f>+CARGA!B109</f>
@@ -9947,7 +9953,7 @@
       </c>
       <c r="E112" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F112">
         <f>+CARGA!B110</f>
@@ -9980,7 +9986,7 @@
       </c>
       <c r="E113" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F113">
         <f>+CARGA!B111</f>
@@ -10013,7 +10019,7 @@
       </c>
       <c r="E114" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F114">
         <f>+CARGA!B112</f>
@@ -10046,7 +10052,7 @@
       </c>
       <c r="E115" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F115">
         <f>+CARGA!B113</f>
@@ -10079,7 +10085,7 @@
       </c>
       <c r="E116" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F116">
         <f>+CARGA!B114</f>
@@ -10112,7 +10118,7 @@
       </c>
       <c r="E117" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F117">
         <f>+CARGA!B115</f>
@@ -10145,7 +10151,7 @@
       </c>
       <c r="E118" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F118">
         <f>+CARGA!B116</f>
@@ -10178,7 +10184,7 @@
       </c>
       <c r="E119" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F119">
         <f>+CARGA!B117</f>
@@ -10211,7 +10217,7 @@
       </c>
       <c r="E120" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F120">
         <f>+CARGA!B118</f>
@@ -10244,7 +10250,7 @@
       </c>
       <c r="E121" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F121">
         <f>+CARGA!B119</f>
@@ -10277,7 +10283,7 @@
       </c>
       <c r="E122" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F122">
         <f>+CARGA!B120</f>
@@ -10310,7 +10316,7 @@
       </c>
       <c r="E123" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F123">
         <f>+CARGA!B121</f>
@@ -10343,7 +10349,7 @@
       </c>
       <c r="E124" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F124">
         <f>+CARGA!B122</f>
@@ -10376,7 +10382,7 @@
       </c>
       <c r="E125" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F125">
         <f>+CARGA!B123</f>
@@ -10409,7 +10415,7 @@
       </c>
       <c r="E126" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F126">
         <f>+CARGA!B124</f>
@@ -10442,7 +10448,7 @@
       </c>
       <c r="E127" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F127">
         <f>+CARGA!B125</f>
@@ -10475,7 +10481,7 @@
       </c>
       <c r="E128" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F128">
         <f>+CARGA!B126</f>
@@ -10508,7 +10514,7 @@
       </c>
       <c r="E129" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F129">
         <f>+CARGA!B127</f>
@@ -10541,7 +10547,7 @@
       </c>
       <c r="E130" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F130">
         <f>+CARGA!N9</f>
@@ -10570,7 +10576,7 @@
       </c>
       <c r="E131" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F131">
         <f>+CARGA!B129</f>
@@ -10603,7 +10609,7 @@
       </c>
       <c r="E132" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F132">
         <f>+CARGA!B130</f>
@@ -10636,7 +10642,7 @@
       </c>
       <c r="E133" s="7">
         <f t="shared" ref="E133:E165" ca="1" si="2">+$B$1</f>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F133">
         <f>+CARGA!B131</f>
@@ -10669,7 +10675,7 @@
       </c>
       <c r="E134" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F134">
         <f>+CARGA!B132</f>
@@ -10702,7 +10708,7 @@
       </c>
       <c r="E135" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F135">
         <f>+CARGA!B133</f>
@@ -10735,7 +10741,7 @@
       </c>
       <c r="E136" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F136">
         <f>+CARGA!B134</f>
@@ -10768,7 +10774,7 @@
       </c>
       <c r="E137" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F137">
         <f>+CARGA!B135</f>
@@ -10801,7 +10807,7 @@
       </c>
       <c r="E138" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F138">
         <f>+CARGA!B136</f>
@@ -10834,7 +10840,7 @@
       </c>
       <c r="E139" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F139">
         <f>+CARGA!B138</f>
@@ -10867,7 +10873,7 @@
       </c>
       <c r="E140" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F140">
         <f>+CARGA!B139</f>
@@ -10900,7 +10906,7 @@
       </c>
       <c r="E141" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F141">
         <f>+CARGA!B140</f>
@@ -10933,7 +10939,7 @@
       </c>
       <c r="E142" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F142">
         <f>+CARGA!B141</f>
@@ -10966,7 +10972,7 @@
       </c>
       <c r="E143" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F143">
         <f>+CARGA!B142</f>
@@ -10999,7 +11005,7 @@
       </c>
       <c r="E144" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F144">
         <f>+CARGA!B143</f>
@@ -11032,7 +11038,7 @@
       </c>
       <c r="E145" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F145">
         <f>+CARGA!B144</f>
@@ -11065,7 +11071,7 @@
       </c>
       <c r="E146" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F146">
         <f>+CARGA!B145</f>
@@ -11098,7 +11104,7 @@
       </c>
       <c r="E147" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F147">
         <f>+CARGA!B146</f>
@@ -11131,7 +11137,7 @@
       </c>
       <c r="E148" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F148">
         <f>+CARGA!B147</f>
@@ -11164,7 +11170,7 @@
       </c>
       <c r="E149" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F149">
         <f>+CARGA!B148</f>
@@ -11197,7 +11203,7 @@
       </c>
       <c r="E150" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F150">
         <f>+CARGA!B149</f>
@@ -11230,7 +11236,7 @@
       </c>
       <c r="E151" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F151">
         <f>+CARGA!B150</f>
@@ -11263,7 +11269,7 @@
       </c>
       <c r="E152" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F152">
         <f>+CARGA!B151</f>
@@ -11296,7 +11302,7 @@
       </c>
       <c r="E153" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F153">
         <f>+CARGA!B152</f>
@@ -11329,7 +11335,7 @@
       </c>
       <c r="E154" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F154">
         <f>+CARGA!B153</f>
@@ -11362,7 +11368,7 @@
       </c>
       <c r="E155" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F155">
         <f>+CARGA!B154</f>
@@ -11395,7 +11401,7 @@
       </c>
       <c r="E156" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F156">
         <f>+CARGA!B155</f>
@@ -11428,7 +11434,7 @@
       </c>
       <c r="E157" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F157">
         <f>+CARGA!B156</f>
@@ -11461,7 +11467,7 @@
       </c>
       <c r="E158" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F158">
         <f>+CARGA!B157</f>
@@ -11494,7 +11500,7 @@
       </c>
       <c r="E159" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F159">
         <f>+CARGA!B158</f>
@@ -11527,7 +11533,7 @@
       </c>
       <c r="E160" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F160">
         <f>+CARGA!B159</f>
@@ -11560,7 +11566,7 @@
       </c>
       <c r="E161" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F161">
         <f>+CARGA!B160</f>
@@ -11593,7 +11599,7 @@
       </c>
       <c r="E162" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F162">
         <f>+CARGA!B161</f>
@@ -11626,7 +11632,7 @@
       </c>
       <c r="E163" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F163">
         <f>+CARGA!B163</f>
@@ -11659,7 +11665,7 @@
       </c>
       <c r="E164" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F164">
         <f>+CARGA!B164</f>
@@ -11692,7 +11698,7 @@
       </c>
       <c r="E165" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45720</v>
+        <v>45961</v>
       </c>
       <c r="F165">
         <f>+CARGA!B165</f>
@@ -11733,7 +11739,7 @@
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
@@ -17419,7 +17425,7 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -17566,13 +17572,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F43D394-5AEF-4698-B42D-3F8905AF3BA1}">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E267"/>
+    <sheetView tabSelected="1" topLeftCell="B248" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
@@ -22117,6 +22123,23 @@
       </c>
       <c r="E267">
         <v>4021</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>680</v>
+      </c>
+      <c r="B268" t="s">
+        <v>680</v>
+      </c>
+      <c r="C268" t="s">
+        <v>307</v>
+      </c>
+      <c r="D268" t="s">
+        <v>681</v>
+      </c>
+      <c r="E268">
+        <v>4018</v>
       </c>
     </row>
   </sheetData>
@@ -22138,33 +22161,13 @@
       <selection activeCell="E5" sqref="E5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc93f9ca-5954-4c13-96dd-d11666463ac3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0ec80de7-f90d-47b1-a6c5-32e15d705b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007E1F265188FDFE42A4BFE4006BE0CB8F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3f20ece1fe4014cb8cec65857af77ffc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc93f9ca-5954-4c13-96dd-d11666463ac3" xmlns:ns3="0ec80de7-f90d-47b1-a6c5-32e15d705b6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="080d2f51fdb7caf9b12a5905e7089e4e" ns2:_="" ns3:_="">
     <xsd:import namespace="cc93f9ca-5954-4c13-96dd-d11666463ac3"/>
@@ -22377,32 +22380,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B64ADA-E4CC-4206-BF2B-DFBC6DFAACEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="cc93f9ca-5954-4c13-96dd-d11666463ac3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0ec80de7-f90d-47b1-a6c5-32e15d705b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4AD189-011A-4FE7-A45D-420A5D084EA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc93f9ca-5954-4c13-96dd-d11666463ac3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ec80de7-f90d-47b1-a6c5-32e15d705b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFC67129-34A5-48BD-8B60-3A8533F292A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22419,4 +22417,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4AD189-011A-4FE7-A45D-420A5D084EA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B64ADA-E4CC-4206-BF2B-DFBC6DFAACEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cc93f9ca-5954-4c13-96dd-d11666463ac3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0ec80de7-f90d-47b1-a6c5-32e15d705b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CARGA NUEVOS ETFs SQL 2020.xlsx
+++ b/CARGA NUEVOS ETFs SQL 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lijv1.LINDA_HP\Documents\GitHub\Financial_Workflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lijv1\OneDrive\Documents\GitHub\Financial_Workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A502775-A337-45F1-BB06-D5449477BF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FF285-BE25-476F-8401-A04EE042F2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{0D62F74E-08C5-4779-AAF2-4C1900F34D34}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{0D62F74E-08C5-4779-AAF2-4C1900F34D34}"/>
   </bookViews>
   <sheets>
     <sheet name="CARGA" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="680">
   <si>
     <t>iShs MSCI Canada ETF</t>
   </si>
@@ -2086,12 +2086,6 @@
   </si>
   <si>
     <t>CSC=F</t>
-  </si>
-  <si>
-    <t>ZM=F</t>
-  </si>
-  <si>
-    <t>S&amp;P Composite 1500 ESG Tilted I</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2184,7 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2230,7 +2224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2532,15 +2526,15 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -2573,7 +2567,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -2619,7 +2613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -2652,7 +2646,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -2676,7 +2670,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -2699,7 +2693,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -2722,7 +2716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -2757,7 +2751,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>315</v>
       </c>
@@ -2795,7 +2789,7 @@
         <v>34687.85</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -2818,7 +2812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>255</v>
       </c>
@@ -2841,7 +2835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -2864,7 +2858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2887,7 +2881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>256</v>
       </c>
@@ -2910,7 +2904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2933,7 +2927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -2956,7 +2950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -2979,7 +2973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -3002,7 +2996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -3025,7 +3019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3048,7 +3042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>423</v>
       </c>
@@ -3071,7 +3065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>418</v>
       </c>
@@ -3094,7 +3088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>214</v>
       </c>
@@ -3117,7 +3111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -3140,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>419</v>
       </c>
@@ -3163,7 +3157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>259</v>
       </c>
@@ -3186,7 +3180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>452</v>
       </c>
@@ -3209,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -3232,7 +3226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>453</v>
       </c>
@@ -3255,7 +3249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -3278,7 +3272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>262</v>
       </c>
@@ -3301,7 +3295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>252</v>
       </c>
@@ -3324,7 +3318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>438</v>
       </c>
@@ -3347,7 +3341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>216</v>
       </c>
@@ -3370,7 +3364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>454</v>
       </c>
@@ -3393,7 +3387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>333</v>
       </c>
@@ -3416,7 +3410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>217</v>
       </c>
@@ -3439,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -3462,7 +3456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>414</v>
       </c>
@@ -3485,7 +3479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>455</v>
       </c>
@@ -3508,7 +3502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>264</v>
       </c>
@@ -3531,7 +3525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>456</v>
       </c>
@@ -3554,7 +3548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>457</v>
       </c>
@@ -3577,7 +3571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3600,7 +3594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>267</v>
       </c>
@@ -3623,7 +3617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>458</v>
       </c>
@@ -3646,7 +3640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>269</v>
       </c>
@@ -3669,7 +3663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>424</v>
       </c>
@@ -3692,7 +3686,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>435</v>
       </c>
@@ -3715,7 +3709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -3738,7 +3732,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>271</v>
       </c>
@@ -3761,7 +3755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>272</v>
       </c>
@@ -3784,7 +3778,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -3807,7 +3801,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -3830,7 +3824,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>247</v>
       </c>
@@ -3853,7 +3847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -3876,7 +3870,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -3899,7 +3893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>223</v>
       </c>
@@ -3922,7 +3916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>224</v>
       </c>
@@ -3945,7 +3939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>459</v>
       </c>
@@ -3968,7 +3962,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>425</v>
       </c>
@@ -3991,7 +3985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>420</v>
       </c>
@@ -4014,7 +4008,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>243</v>
       </c>
@@ -4037,7 +4031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>460</v>
       </c>
@@ -4060,7 +4054,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -4083,7 +4077,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>461</v>
       </c>
@@ -4106,7 +4100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -4129,7 +4123,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>462</v>
       </c>
@@ -4152,7 +4146,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>226</v>
       </c>
@@ -4175,7 +4169,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>277</v>
       </c>
@@ -4198,7 +4192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>227</v>
       </c>
@@ -4221,7 +4215,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -4244,7 +4238,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>244</v>
       </c>
@@ -4267,7 +4261,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>229</v>
       </c>
@@ -4290,7 +4284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -4313,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -4336,7 +4330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>230</v>
       </c>
@@ -4359,7 +4353,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>463</v>
       </c>
@@ -4382,7 +4376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -4405,7 +4399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>436</v>
       </c>
@@ -4428,7 +4422,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>416</v>
       </c>
@@ -4451,7 +4445,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>232</v>
       </c>
@@ -4474,7 +4468,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>281</v>
       </c>
@@ -4497,7 +4491,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>282</v>
       </c>
@@ -4520,7 +4514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>283</v>
       </c>
@@ -4543,7 +4537,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>233</v>
       </c>
@@ -4566,7 +4560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>234</v>
       </c>
@@ -4589,7 +4583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>235</v>
       </c>
@@ -4612,7 +4606,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>443</v>
       </c>
@@ -4635,7 +4629,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -4658,7 +4652,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>236</v>
       </c>
@@ -4681,7 +4675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>237</v>
       </c>
@@ -4704,7 +4698,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -4727,7 +4721,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -4750,7 +4744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>118</v>
       </c>
@@ -4773,7 +4767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -4796,7 +4790,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>284</v>
       </c>
@@ -4819,7 +4813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>373</v>
       </c>
@@ -4842,7 +4836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>245</v>
       </c>
@@ -4865,7 +4859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>285</v>
       </c>
@@ -4888,7 +4882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>246</v>
       </c>
@@ -4911,7 +4905,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>286</v>
       </c>
@@ -4934,13 +4928,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>180</v>
       </c>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>376</v>
       </c>
@@ -4963,7 +4957,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>287</v>
       </c>
@@ -4986,7 +4980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>417</v>
       </c>
@@ -5009,7 +5003,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>426</v>
       </c>
@@ -5032,7 +5026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -5055,7 +5049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>379</v>
       </c>
@@ -5078,7 +5072,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>437</v>
       </c>
@@ -5101,7 +5095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>289</v>
       </c>
@@ -5124,7 +5118,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>251</v>
       </c>
@@ -5147,7 +5141,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>238</v>
       </c>
@@ -5170,7 +5164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -5193,7 +5187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>464</v>
       </c>
@@ -5216,7 +5210,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -5239,7 +5233,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>291</v>
       </c>
@@ -5262,7 +5256,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>292</v>
       </c>
@@ -5285,7 +5279,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>293</v>
       </c>
@@ -5308,7 +5302,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>294</v>
       </c>
@@ -5331,7 +5325,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>295</v>
       </c>
@@ -5354,7 +5348,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>296</v>
       </c>
@@ -5377,7 +5371,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>297</v>
       </c>
@@ -5400,7 +5394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>298</v>
       </c>
@@ -5423,7 +5417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>465</v>
       </c>
@@ -5446,7 +5440,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>444</v>
       </c>
@@ -5469,7 +5463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -5492,12 +5486,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>191</v>
       </c>
@@ -5520,7 +5514,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>159</v>
       </c>
@@ -5543,7 +5537,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>240</v>
       </c>
@@ -5566,7 +5560,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>249</v>
       </c>
@@ -5589,7 +5583,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>241</v>
       </c>
@@ -5612,7 +5606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>164</v>
       </c>
@@ -5635,7 +5629,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>166</v>
       </c>
@@ -5658,7 +5652,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>389</v>
       </c>
@@ -5681,12 +5675,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>170</v>
       </c>
@@ -5709,7 +5703,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -5732,7 +5726,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>173</v>
       </c>
@@ -5755,7 +5749,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>174</v>
       </c>
@@ -5778,7 +5772,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>175</v>
       </c>
@@ -5801,7 +5795,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>176</v>
       </c>
@@ -5824,7 +5818,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>192</v>
       </c>
@@ -5847,7 +5841,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>193</v>
       </c>
@@ -5870,7 +5864,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>194</v>
       </c>
@@ -5893,7 +5887,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>195</v>
       </c>
@@ -5916,7 +5910,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>196</v>
       </c>
@@ -5939,7 +5933,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>197</v>
       </c>
@@ -5962,7 +5956,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>198</v>
       </c>
@@ -5985,7 +5979,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>199</v>
       </c>
@@ -6008,7 +6002,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>200</v>
       </c>
@@ -6031,7 +6025,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>201</v>
       </c>
@@ -6054,7 +6048,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="e">
         <f>OR([1]!D)</f>
         <v>#NAME?</v>
@@ -6078,7 +6072,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>202</v>
       </c>
@@ -6101,7 +6095,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -6124,7 +6118,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>204</v>
       </c>
@@ -6147,7 +6141,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>205</v>
       </c>
@@ -6170,7 +6164,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>178</v>
       </c>
@@ -6193,7 +6187,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>206</v>
       </c>
@@ -6216,7 +6210,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>242</v>
       </c>
@@ -6239,12 +6233,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -6267,7 +6261,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>301</v>
       </c>
@@ -6290,7 +6284,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>443</v>
       </c>
@@ -6329,15 +6323,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -6349,8 +6343,8 @@
         <v>44358</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>69</v>
       </c>
@@ -6379,7 +6373,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>+CARGA!A1</f>
         <v>$COMPX</v>
@@ -6412,7 +6406,7 @@
         <v>3990976</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>+CARGA!A2</f>
         <v>$INX</v>
@@ -6445,7 +6439,7 @@
         <v>2011680</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>+CARGA!A3</f>
         <v>ARGT(HB)</v>
@@ -6478,7 +6472,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>+CARGA!A4</f>
         <v>BJK(HB)</v>
@@ -6511,7 +6505,7 @@
         <v>22241</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>+CARGA!A5</f>
         <v>CGW(HB)</v>
@@ -6544,7 +6538,7 @@
         <v>51916</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>+CARGA!A6</f>
         <v>CHIQ</v>
@@ -6577,7 +6571,7 @@
         <v>75244</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>+CARGA!A7</f>
         <v>CQQQ</v>
@@ -6610,7 +6604,7 @@
         <v>183982</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>+CARGA!A8</f>
         <v>CUT(HB)</v>
@@ -6643,7 +6637,7 @@
         <v>14710</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>+CARGA!A9</f>
         <v>DFJ</v>
@@ -6676,7 +6670,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>+CARGA!A10</f>
         <v>DIA</v>
@@ -6709,7 +6703,7 @@
         <v>5651520</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>+CARGA!A11</f>
         <v>ECH</v>
@@ -6742,7 +6736,7 @@
         <v>85302</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>+CARGA!A12</f>
         <v>ECON(HB)</v>
@@ -6775,7 +6769,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>+CARGA!A13</f>
         <v>EDEN(HB)</v>
@@ -6808,7 +6802,7 @@
         <v>10664</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>+CARGA!A14</f>
         <v>EEM</v>
@@ -6841,7 +6835,7 @@
         <v>23386261</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>+CARGA!A15</f>
         <v>EFNL(HB)</v>
@@ -6874,7 +6868,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>+CARGA!A16</f>
         <v>EGPT(HB)</v>
@@ -6907,7 +6901,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>+CARGA!A17</f>
         <v>EIDO(HB)</v>
@@ -6940,7 +6934,7 @@
         <v>260485</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>+CARGA!A18</f>
         <v>EIRL(HB)</v>
@@ -6973,7 +6967,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>+CARGA!A19</f>
         <v>EIS(HB)</v>
@@ -7006,7 +7000,7 @@
         <v>10411</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>+CARGA!A20</f>
         <v>ENZL(HB)</v>
@@ -7039,7 +7033,7 @@
         <v>7241</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>+CARGA!A21</f>
         <v>EPHE(HB)</v>
@@ -7072,7 +7066,7 @@
         <v>30810</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>+CARGA!A22</f>
         <v>EPOL(HB)</v>
@@ -7105,7 +7099,7 @@
         <v>294723</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>+CARGA!A23</f>
         <v>EPU(HB)</v>
@@ -7138,7 +7132,7 @@
         <v>28348</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>+CARGA!A24</f>
         <v>ERUS(HB)</v>
@@ -7171,7 +7165,7 @@
         <v>71241</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>+CARGA!A25</f>
         <v>EUFN(HB)</v>
@@ -7204,7 +7198,7 @@
         <v>398356</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>+CARGA!A26</f>
         <v>EWA</v>
@@ -7237,7 +7231,7 @@
         <v>2062125</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>+CARGA!A27</f>
         <v>EWC(HB)</v>
@@ -7270,7 +7264,7 @@
         <v>1629597</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>+CARGA!A28</f>
         <v>EWD(HB)</v>
@@ -7303,7 +7297,7 @@
         <v>158072</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>+CARGA!A29</f>
         <v>EWG(HB)</v>
@@ -7336,7 +7330,7 @@
         <v>2789844</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>+CARGA!A30</f>
         <v>EWGS(HB)</v>
@@ -7369,7 +7363,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>+CARGA!A31</f>
         <v>EWH</v>
@@ -7402,7 +7396,7 @@
         <v>6393209</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>+CARGA!A32</f>
         <v>EWI(HB)</v>
@@ -7435,7 +7429,7 @@
         <v>730806</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>+CARGA!A33</f>
         <v>EWJ(HB)</v>
@@ -7468,7 +7462,7 @@
         <v>4813844</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>+CARGA!A34</f>
         <v>EWK(HB)</v>
@@ -7501,7 +7495,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>+CARGA!A35</f>
         <v>EWL(HB)</v>
@@ -7534,7 +7528,7 @@
         <v>821409</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>+CARGA!A36</f>
         <v>EWM</v>
@@ -7567,7 +7561,7 @@
         <v>161995</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>+CARGA!A37</f>
         <v>EWN(HB)</v>
@@ -7600,7 +7594,7 @@
         <v>76307</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>+CARGA!A38</f>
         <v>EWO(HB)</v>
@@ -7633,7 +7627,7 @@
         <v>11416</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>+CARGA!A39</f>
         <v>EWP(HB)</v>
@@ -7666,7 +7660,7 @@
         <v>810433</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>+CARGA!A40</f>
         <v>EWQ(HB)</v>
@@ -7699,7 +7693,7 @@
         <v>1648567</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>+CARGA!A41</f>
         <v>EWS</v>
@@ -7732,7 +7726,7 @@
         <v>934137</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>+CARGA!A42</f>
         <v>EWT(HB)</v>
@@ -7765,7 +7759,7 @@
         <v>2654180</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>+CARGA!A43</f>
         <v>EWU(HB)</v>
@@ -7798,7 +7792,7 @@
         <v>1683208</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>+CARGA!A44</f>
         <v>EWUS(HB)</v>
@@ -7831,7 +7825,7 @@
         <v>12331</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>+CARGA!A45</f>
         <v>EWW</v>
@@ -7864,7 +7858,7 @@
         <v>1820945</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>+CARGA!A46</f>
         <v>EWY(HB)</v>
@@ -7897,7 +7891,7 @@
         <v>2660604</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>+CARGA!A47</f>
         <v>EWZ</v>
@@ -7930,7 +7924,7 @@
         <v>20743225</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>+CARGA!A48</f>
         <v>EWZS(HB)</v>
@@ -7963,7 +7957,7 @@
         <v>25616</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>+CARGA!A49</f>
         <v>EZA(HB)</v>
@@ -7996,7 +7990,7 @@
         <v>195226</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>+CARGA!A50</f>
         <v>FDN(HB)</v>
@@ -8029,7 +8023,7 @@
         <v>114795</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>+CARGA!A51</f>
         <v>FXI</v>
@@ -8062,7 +8056,7 @@
         <v>13862001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>+CARGA!A52</f>
         <v>GDX</v>
@@ -8095,7 +8089,7 @@
         <v>28729830</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>+CARGA!A53</f>
         <v>GII(HB)</v>
@@ -8128,7 +8122,7 @@
         <v>35389</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>+CARGA!A54</f>
         <v>GNR(HB)</v>
@@ -8161,7 +8155,7 @@
         <v>209798</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>+CARGA!A55</f>
         <v>GREK(HB)</v>
@@ -8194,7 +8188,7 @@
         <v>52424</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>+CARGA!A56</f>
         <v>GRES(HB)</v>
@@ -8227,7 +8221,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>+CARGA!A57</f>
         <v>GXC(HB)</v>
@@ -8260,7 +8254,7 @@
         <v>19403</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>+CARGA!A58</f>
         <v>GXG(HB)</v>
@@ -8293,7 +8287,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>+CARGA!A59</f>
         <v>IAI(HB)</v>
@@ -8326,7 +8320,7 @@
         <v>53440</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>+CARGA!A60</f>
         <v>IBB(HB)</v>
@@ -8359,7 +8353,7 @@
         <v>4890883</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f>+CARGA!A61</f>
         <v>IEV(HB)</v>
@@ -8392,7 +8386,7 @@
         <v>341222</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f>+CARGA!A62</f>
         <v>IGV(HB)</v>
@@ -8425,7 +8419,7 @@
         <v>764773</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f>+CARGA!A63</f>
         <v>IHI(HB)</v>
@@ -8458,7 +8452,7 @@
         <v>78646</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f>+CARGA!A64</f>
         <v>ILF(HB)</v>
@@ -8491,7 +8485,7 @@
         <v>1459035</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f>+CARGA!A65</f>
         <v>INCO(HB)</v>
@@ -8524,7 +8518,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f>+CARGA!A66</f>
         <v>INDA(HB)</v>
@@ -8557,7 +8551,7 @@
         <v>1859273</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f>+CARGA!A67</f>
         <v>ITA(HB)</v>
@@ -8590,7 +8584,7 @@
         <v>170917</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f>+CARGA!A68</f>
         <v>ITB(HB)</v>
@@ -8623,7 +8617,7 @@
         <v>1886237</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f>+CARGA!A69</f>
         <v>ITEQ(HB)</v>
@@ -8656,7 +8650,7 @@
         <v>41488</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f>+CARGA!A70</f>
         <v>IWM</v>
@@ -8689,7 +8683,7 @@
         <v>36022662</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f>+CARGA!A71</f>
         <v>IXG(HB)</v>
@@ -8722,7 +8716,7 @@
         <v>241465</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>+CARGA!A72</f>
         <v>IXJ(HB)</v>
@@ -8755,7 +8749,7 @@
         <v>112788</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f>+CARGA!A73</f>
         <v>IXN(HB)</v>
@@ -8788,7 +8782,7 @@
         <v>37740</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f>+CARGA!A74</f>
         <v>IXP(HB)</v>
@@ -8821,7 +8815,7 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f>+CARGA!A75</f>
         <v>IYT(HB)</v>
@@ -8854,7 +8848,7 @@
         <v>288234</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f>+CARGA!A76</f>
         <v>IYZ(HB)</v>
@@ -8887,7 +8881,7 @@
         <v>95012</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f>+CARGA!A77</f>
         <v>JXI(HB)</v>
@@ -8920,7 +8914,7 @@
         <v>8881</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f>+CARGA!A78</f>
         <v>KBE(HB)</v>
@@ -8953,7 +8947,7 @@
         <v>2265134</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f>+CARGA!A79</f>
         <v>KBWY(HB)</v>
@@ -8986,7 +8980,7 @@
         <v>181843</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f>+CARGA!A80</f>
         <v>KIE(HB)</v>
@@ -9019,7 +9013,7 @@
         <v>343650</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f>+CARGA!A81</f>
         <v>KSA(HB)</v>
@@ -9052,7 +9046,7 @@
         <v>151206</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f>+CARGA!A82</f>
         <v>KXI(HB)</v>
@@ -9085,7 +9079,7 @@
         <v>24413</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f>+CARGA!A83</f>
         <v>LIT</v>
@@ -9118,7 +9112,7 @@
         <v>1044972</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>+CARGA!A84</f>
         <v>MCHI</v>
@@ -9151,7 +9145,7 @@
         <v>5161471</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f>+CARGA!A85</f>
         <v>MDY</v>
@@ -9184,7 +9178,7 @@
         <v>825695</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f>+CARGA!A86</f>
         <v>NORW(HB)</v>
@@ -9217,7 +9211,7 @@
         <v>24367</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f>+CARGA!A87</f>
         <v>PBJ(HB)</v>
@@ -9250,7 +9244,7 @@
         <v>7447</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>+CARGA!A88</f>
         <v>PBS(HB)</v>
@@ -9283,7 +9277,7 @@
         <v>8514</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>+CARGA!A89</f>
         <v>PEJ(HB)</v>
@@ -9316,7 +9310,7 @@
         <v>210880</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>+CARGA!A90</f>
         <v>PHO(HB)</v>
@@ -9349,7 +9343,7 @@
         <v>102422</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>+CARGA!A91</f>
         <v>PJP(HB)</v>
@@ -9382,7 +9376,7 @@
         <v>4951</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>+CARGA!A92</f>
         <v>PPA(HB)</v>
@@ -9415,7 +9409,7 @@
         <v>11366</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>+CARGA!A93</f>
         <v>PSCC(HB)</v>
@@ -9448,7 +9442,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f>+CARGA!A94</f>
         <v>PSCD(HB)</v>
@@ -9481,7 +9475,7 @@
         <v>7084</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f>+CARGA!A95</f>
         <v>PSCH(HB)</v>
@@ -9514,7 +9508,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>+CARGA!A96</f>
         <v>QAT(HB)</v>
@@ -9547,7 +9541,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f>+CARGA!A97</f>
         <v>QQQ</v>
@@ -9580,7 +9574,7 @@
         <v>47091341</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f>+CARGA!A98</f>
         <v>REM</v>
@@ -9613,7 +9607,7 @@
         <v>457901</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f>+CARGA!A99</f>
         <v>ROBO(HB)</v>
@@ -9646,7 +9640,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f>+CARGA!A100</f>
         <v>RSX</v>
@@ -9679,7 +9673,7 @@
         <v>3058973</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f>+CARGA!A101</f>
         <v>RWO(HB)</v>
@@ -9712,7 +9706,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f>+CARGA!A102</f>
         <v>RWX</v>
@@ -9745,7 +9739,7 @@
         <v>243248</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f>+CARGA!A104</f>
         <v>SIL</v>
@@ -9778,7 +9772,7 @@
         <v>372546</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f>+CARGA!A105</f>
         <v>SPY</v>
@@ -9811,7 +9805,7 @@
         <v>75698200</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f>+CARGA!A106</f>
         <v>TAN(HB)</v>
@@ -9844,7 +9838,7 @@
         <v>1883179</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f>+CARGA!A107</f>
         <v>THD(HB)</v>
@@ -9877,7 +9871,7 @@
         <v>46833</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f>+CARGA!A108</f>
         <v>TUR(HB)</v>
@@ -9910,7 +9904,7 @@
         <v>83758</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f>+CARGA!A109</f>
         <v>URA</v>
@@ -9943,7 +9937,7 @@
         <v>1040533</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f>+CARGA!A110</f>
         <v>VNM(HB)</v>
@@ -9976,7 +9970,7 @@
         <v>242940</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f>+CARGA!A111</f>
         <v>VNQ</v>
@@ -10009,7 +10003,7 @@
         <v>6435414</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f>+CARGA!A112</f>
         <v>VNQI(HB)</v>
@@ -10042,7 +10036,7 @@
         <v>6453225</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f>+CARGA!A113</f>
         <v>VOX(HB)</v>
@@ -10075,7 +10069,7 @@
         <v>167654</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f>+CARGA!A114</f>
         <v>WOOD(HB)</v>
@@ -10108,7 +10102,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f>+CARGA!A115</f>
         <v>XHB(HB)</v>
@@ -10141,7 +10135,7 @@
         <v>2163229</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f>+CARGA!A116</f>
         <v>XHE(HB)</v>
@@ -10174,7 +10168,7 @@
         <v>24523</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f>+CARGA!A117</f>
         <v>XLB</v>
@@ -10207,7 +10201,7 @@
         <v>9611052</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f>+CARGA!A118</f>
         <v>XLE</v>
@@ -10240,7 +10234,7 @@
         <v>37110694</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f>+CARGA!A119</f>
         <v>XLF</v>
@@ -10273,7 +10267,7 @@
         <v>56108498</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f>+CARGA!A120</f>
         <v>XLI</v>
@@ -10306,7 +10300,7 @@
         <v>17264607</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f>+CARGA!A121</f>
         <v>XLK</v>
@@ -10339,7 +10333,7 @@
         <v>7539900</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f>+CARGA!A122</f>
         <v>XLP</v>
@@ -10372,7 +10366,7 @@
         <v>8634292</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f>+CARGA!A123</f>
         <v>XLU</v>
@@ -10405,7 +10399,7 @@
         <v>16552620</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f>+CARGA!A124</f>
         <v>XLV</v>
@@ -10438,7 +10432,7 @@
         <v>6511024</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f>+CARGA!A125</f>
         <v>XLY(HB)</v>
@@ -10471,7 +10465,7 @@
         <v>4212102</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f>+CARGA!A126</f>
         <v>XME(HB)</v>
@@ -10504,7 +10498,7 @@
         <v>4730484</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f>+CARGA!A127</f>
         <v>XRT(HB)</v>
@@ -10537,7 +10531,7 @@
         <v>2602380</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f>+CARGA!M9</f>
         <v>Dow Jones Industrial Average</v>
@@ -10566,7 +10560,7 @@
         <v>34687.85</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f>+CARGA!A129</f>
         <v>@DX(D)</v>
@@ -10599,7 +10593,7 @@
         <v>15019</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f>+CARGA!A130</f>
         <v>EURUSD</v>
@@ -10632,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f>+CARGA!A131</f>
         <v>FXB(HB)</v>
@@ -10665,7 +10659,7 @@
         <v>10391</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f>+CARGA!A132</f>
         <v>FXE(HB)</v>
@@ -10698,7 +10692,7 @@
         <v>21739</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f>+CARGA!A133</f>
         <v>FXY(HB)</v>
@@ -10731,7 +10725,7 @@
         <v>80567</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f>+CARGA!A134</f>
         <v>GBPUSD</v>
@@ -10764,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f>+CARGA!A135</f>
         <v>USDMXN</v>
@@ -10797,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f>+CARGA!A136</f>
         <v>UUP</v>
@@ -10830,7 +10824,7 @@
         <v>812622</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f>+CARGA!A138</f>
         <v>$BCOM(D)</v>
@@ -10863,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f>+CARGA!A139</f>
         <v>$BCOMGR(D)</v>
@@ -10896,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f>+CARGA!A140</f>
         <v>$BCOMIN(D)</v>
@@ -10929,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f>+CARGA!A141</f>
         <v>$BCOMPR(D)</v>
@@ -10962,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f>+CARGA!A142</f>
         <v>$BCOMSO(D)</v>
@@ -10995,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f>+CARGA!A143</f>
         <v>@C(D)</v>
@@ -11028,7 +11022,7 @@
         <v>73858</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f>+CARGA!A144</f>
         <v>@CC(D)</v>
@@ -11061,7 +11055,7 @@
         <v>18751</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f>+CARGA!A145</f>
         <v>@CL(D)</v>
@@ -11094,7 +11088,7 @@
         <v>347396</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f>+CARGA!A146</f>
         <v>@CT(D)</v>
@@ -11127,7 +11121,7 @@
         <v>10908</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f>+CARGA!A147</f>
         <v>@GC(D)</v>
@@ -11160,7 +11154,7 @@
         <v>181535</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f>+CARGA!A148</f>
         <v>@HG(D)</v>
@@ -11193,7 +11187,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f>+CARGA!A149</f>
         <v>@HO(D)</v>
@@ -11226,7 +11220,7 @@
         <v>28086</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f>+CARGA!A150</f>
         <v>@KC(D)</v>
@@ -11259,7 +11253,7 @@
         <v>26482</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f>+CARGA!A151</f>
         <v>@LC(D)</v>
@@ -11292,7 +11286,7 @@
         <v>13367</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f>+CARGA!A152</f>
         <v>@LH(D)</v>
@@ -11325,7 +11319,7 @@
         <v>15390</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f>+CARGA!A153</f>
         <v>@NG(D)</v>
@@ -11358,7 +11352,7 @@
         <v>82330</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="e">
         <f>+CARGA!A154</f>
         <v>#NAME?</v>
@@ -11391,7 +11385,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f>+CARGA!A155</f>
         <v>@OJ(D)</v>
@@ -11424,7 +11418,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f>+CARGA!A156</f>
         <v>@PB(D)</v>
@@ -11457,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f>+CARGA!A157</f>
         <v>@S(D)</v>
@@ -11490,7 +11484,7 @@
         <v>84721</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f>+CARGA!A158</f>
         <v>@SB(D)</v>
@@ -11523,7 +11517,7 @@
         <v>45802</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f>+CARGA!A159</f>
         <v>@SI(D)</v>
@@ -11556,7 +11550,7 @@
         <v>74872</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f>+CARGA!A160</f>
         <v>@W(D)</v>
@@ -11589,7 +11583,7 @@
         <v>73311</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f>+CARGA!A161</f>
         <v>SLX(HB)</v>
@@ -11622,7 +11616,7 @@
         <v>89270</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f>+CARGA!A163</f>
         <v>CARZ(HB)</v>
@@ -11655,7 +11649,7 @@
         <v>7352</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f>+CARGA!A164</f>
         <v>HST</v>
@@ -11688,7 +11682,7 @@
         <v>8483649</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f>+CARGA!A165</f>
         <v>PEJ(HB)</v>
@@ -11739,14 +11733,14 @@
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>302</v>
       </c>
@@ -11763,7 +11757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>+CARGA!A1</f>
         <v>$COMPX</v>
@@ -11782,7 +11776,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>+CARGA!A2</f>
         <v>$INX</v>
@@ -11801,7 +11795,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>+CARGA!A3</f>
         <v>ARGT(HB)</v>
@@ -11820,7 +11814,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>+CARGA!A4</f>
         <v>BJK(HB)</v>
@@ -11839,7 +11833,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>+CARGA!A5</f>
         <v>CGW(HB)</v>
@@ -11858,7 +11852,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>+CARGA!A6</f>
         <v>CHIQ</v>
@@ -11877,7 +11871,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>+CARGA!A7</f>
         <v>CQQQ</v>
@@ -11896,7 +11890,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>+CARGA!A8</f>
         <v>CUT(HB)</v>
@@ -11915,7 +11909,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>+CARGA!A9</f>
         <v>DFJ</v>
@@ -11934,7 +11928,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>+CARGA!A10</f>
         <v>DIA</v>
@@ -11953,7 +11947,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>+CARGA!A11</f>
         <v>ECH</v>
@@ -11972,7 +11966,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>+CARGA!A12</f>
         <v>ECON(HB)</v>
@@ -11991,7 +11985,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>+CARGA!A13</f>
         <v>EDEN(HB)</v>
@@ -12010,7 +12004,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>+CARGA!A14</f>
         <v>EEM</v>
@@ -12029,7 +12023,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>+CARGA!A15</f>
         <v>EFNL(HB)</v>
@@ -12048,7 +12042,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>+CARGA!A16</f>
         <v>EGPT(HB)</v>
@@ -12067,7 +12061,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>+CARGA!A17</f>
         <v>EIDO(HB)</v>
@@ -12086,7 +12080,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>+CARGA!A18</f>
         <v>EIRL(HB)</v>
@@ -12105,7 +12099,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>+CARGA!A19</f>
         <v>EIS(HB)</v>
@@ -12124,7 +12118,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>+CARGA!A20</f>
         <v>ENZL(HB)</v>
@@ -12143,7 +12137,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>+CARGA!A21</f>
         <v>EPHE(HB)</v>
@@ -12162,7 +12156,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>+CARGA!A22</f>
         <v>EPOL(HB)</v>
@@ -12181,7 +12175,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>+CARGA!A23</f>
         <v>EPU(HB)</v>
@@ -12200,7 +12194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>+CARGA!A24</f>
         <v>ERUS(HB)</v>
@@ -12219,7 +12213,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>+CARGA!A25</f>
         <v>EUFN(HB)</v>
@@ -12238,7 +12232,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>+CARGA!A26</f>
         <v>EWA</v>
@@ -12257,7 +12251,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>+CARGA!A27</f>
         <v>EWC(HB)</v>
@@ -12276,7 +12270,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>+CARGA!A28</f>
         <v>EWD(HB)</v>
@@ -12295,7 +12289,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>+CARGA!A29</f>
         <v>EWG(HB)</v>
@@ -12314,7 +12308,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>+CARGA!A30</f>
         <v>EWGS(HB)</v>
@@ -12333,7 +12327,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>+CARGA!A31</f>
         <v>EWH</v>
@@ -12352,7 +12346,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>+CARGA!A32</f>
         <v>EWI(HB)</v>
@@ -12371,7 +12365,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>+CARGA!A33</f>
         <v>EWJ(HB)</v>
@@ -12390,7 +12384,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>+CARGA!A34</f>
         <v>EWK(HB)</v>
@@ -12409,7 +12403,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>+CARGA!A35</f>
         <v>EWL(HB)</v>
@@ -12428,7 +12422,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>+CARGA!A36</f>
         <v>EWM</v>
@@ -12447,7 +12441,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>+CARGA!A37</f>
         <v>EWN(HB)</v>
@@ -12466,7 +12460,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>+CARGA!A38</f>
         <v>EWO(HB)</v>
@@ -12485,7 +12479,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>+CARGA!A39</f>
         <v>EWP(HB)</v>
@@ -12504,7 +12498,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>+CARGA!A40</f>
         <v>EWQ(HB)</v>
@@ -12523,7 +12517,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>+CARGA!A41</f>
         <v>EWS</v>
@@ -12542,7 +12536,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>+CARGA!A42</f>
         <v>EWT(HB)</v>
@@ -12561,7 +12555,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>+CARGA!A43</f>
         <v>EWU(HB)</v>
@@ -12580,7 +12574,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>+CARGA!A44</f>
         <v>EWUS(HB)</v>
@@ -12599,7 +12593,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>+CARGA!A45</f>
         <v>EWW</v>
@@ -12618,7 +12612,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>+CARGA!A46</f>
         <v>EWY(HB)</v>
@@ -12637,7 +12631,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>+CARGA!A47</f>
         <v>EWZ</v>
@@ -12656,7 +12650,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>+CARGA!A48</f>
         <v>EWZS(HB)</v>
@@ -12675,7 +12669,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>+CARGA!A49</f>
         <v>EZA(HB)</v>
@@ -12694,7 +12688,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>+CARGA!A50</f>
         <v>FDN(HB)</v>
@@ -12713,7 +12707,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>+CARGA!A51</f>
         <v>FXI</v>
@@ -12732,7 +12726,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>+CARGA!A52</f>
         <v>GDX</v>
@@ -12751,7 +12745,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>+CARGA!A53</f>
         <v>GII(HB)</v>
@@ -12770,7 +12764,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>+CARGA!A54</f>
         <v>GNR(HB)</v>
@@ -12789,7 +12783,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>+CARGA!A55</f>
         <v>GREK(HB)</v>
@@ -12808,7 +12802,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>+CARGA!A56</f>
         <v>GRES(HB)</v>
@@ -12827,7 +12821,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>+CARGA!A57</f>
         <v>GXC(HB)</v>
@@ -12846,7 +12840,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>+CARGA!A58</f>
         <v>GXG(HB)</v>
@@ -12865,7 +12859,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>+CARGA!A59</f>
         <v>IAI(HB)</v>
@@ -12884,7 +12878,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>+CARGA!A60</f>
         <v>IBB(HB)</v>
@@ -12903,7 +12897,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>+CARGA!A61</f>
         <v>IEV(HB)</v>
@@ -12922,7 +12916,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>+CARGA!A62</f>
         <v>IGV(HB)</v>
@@ -12941,7 +12935,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f>+CARGA!A63</f>
         <v>IHI(HB)</v>
@@ -12960,7 +12954,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f>+CARGA!A64</f>
         <v>ILF(HB)</v>
@@ -12979,7 +12973,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f>+CARGA!A65</f>
         <v>INCO(HB)</v>
@@ -12998,7 +12992,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f>+CARGA!A66</f>
         <v>INDA(HB)</v>
@@ -13017,7 +13011,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f>+CARGA!A67</f>
         <v>ITA(HB)</v>
@@ -13036,7 +13030,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f>+CARGA!A68</f>
         <v>ITB(HB)</v>
@@ -13055,7 +13049,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f>+CARGA!A69</f>
         <v>ITEQ(HB)</v>
@@ -13074,7 +13068,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f>+CARGA!A70</f>
         <v>IWM</v>
@@ -13093,7 +13087,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f>+CARGA!A71</f>
         <v>IXG(HB)</v>
@@ -13112,7 +13106,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f>+CARGA!A72</f>
         <v>IXJ(HB)</v>
@@ -13131,7 +13125,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f>+CARGA!A73</f>
         <v>IXN(HB)</v>
@@ -13150,7 +13144,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>+CARGA!A74</f>
         <v>IXP(HB)</v>
@@ -13169,7 +13163,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f>+CARGA!A75</f>
         <v>IYT(HB)</v>
@@ -13188,7 +13182,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f>+CARGA!A76</f>
         <v>IYZ(HB)</v>
@@ -13207,7 +13201,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f>+CARGA!A77</f>
         <v>JXI(HB)</v>
@@ -13226,7 +13220,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f>+CARGA!A78</f>
         <v>KBE(HB)</v>
@@ -13245,7 +13239,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f>+CARGA!A79</f>
         <v>KBWY(HB)</v>
@@ -13264,7 +13258,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f>+CARGA!A80</f>
         <v>KIE(HB)</v>
@@ -13283,7 +13277,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f>+CARGA!A81</f>
         <v>KSA(HB)</v>
@@ -13302,7 +13296,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f>+CARGA!A82</f>
         <v>KXI(HB)</v>
@@ -13321,7 +13315,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f>+CARGA!A83</f>
         <v>LIT</v>
@@ -13340,7 +13334,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f>+CARGA!A84</f>
         <v>MCHI</v>
@@ -13359,7 +13353,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f>+CARGA!A85</f>
         <v>MDY</v>
@@ -13378,7 +13372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>+CARGA!A86</f>
         <v>NORW(HB)</v>
@@ -13397,7 +13391,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f>+CARGA!A87</f>
         <v>PBJ(HB)</v>
@@ -13416,7 +13410,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f>+CARGA!A88</f>
         <v>PBS(HB)</v>
@@ -13435,7 +13429,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f>+CARGA!A89</f>
         <v>PEJ(HB)</v>
@@ -13454,7 +13448,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>+CARGA!A90</f>
         <v>PHO(HB)</v>
@@ -13473,7 +13467,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>+CARGA!A91</f>
         <v>PJP(HB)</v>
@@ -13492,7 +13486,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>+CARGA!A92</f>
         <v>PPA(HB)</v>
@@ -13511,7 +13505,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>+CARGA!A93</f>
         <v>PSCC(HB)</v>
@@ -13530,7 +13524,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>+CARGA!A94</f>
         <v>PSCD(HB)</v>
@@ -13549,7 +13543,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>+CARGA!A95</f>
         <v>PSCH(HB)</v>
@@ -13568,7 +13562,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f>+CARGA!A96</f>
         <v>QAT(HB)</v>
@@ -13587,7 +13581,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f>+CARGA!A97</f>
         <v>QQQ</v>
@@ -13606,7 +13600,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>+CARGA!A98</f>
         <v>REM</v>
@@ -13625,7 +13619,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f>+CARGA!A99</f>
         <v>ROBO(HB)</v>
@@ -13644,7 +13638,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f>+CARGA!A100</f>
         <v>RSX</v>
@@ -13663,7 +13657,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f>+CARGA!A101</f>
         <v>RWO(HB)</v>
@@ -13682,7 +13676,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f>+CARGA!A102</f>
         <v>RWX</v>
@@ -13701,7 +13695,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>+CARGA!A103</f>
         <v>0</v>
@@ -13717,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f>+CARGA!A104</f>
         <v>SIL</v>
@@ -13736,7 +13730,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f>+CARGA!A105</f>
         <v>SPY</v>
@@ -13755,7 +13749,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f>+CARGA!A106</f>
         <v>TAN(HB)</v>
@@ -13774,7 +13768,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f>+CARGA!A107</f>
         <v>THD(HB)</v>
@@ -13793,7 +13787,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f>+CARGA!A108</f>
         <v>TUR(HB)</v>
@@ -13812,7 +13806,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f>+CARGA!A109</f>
         <v>URA</v>
@@ -13831,7 +13825,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f>+CARGA!A110</f>
         <v>VNM(HB)</v>
@@ -13850,7 +13844,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f>+CARGA!A111</f>
         <v>VNQ</v>
@@ -13869,7 +13863,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f>+CARGA!A112</f>
         <v>VNQI(HB)</v>
@@ -13888,7 +13882,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f>+CARGA!A113</f>
         <v>VOX(HB)</v>
@@ -13907,7 +13901,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f>+CARGA!A114</f>
         <v>WOOD(HB)</v>
@@ -13926,7 +13920,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f>+CARGA!A115</f>
         <v>XHB(HB)</v>
@@ -13945,7 +13939,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f>+CARGA!A116</f>
         <v>XHE(HB)</v>
@@ -13964,7 +13958,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f>+CARGA!A117</f>
         <v>XLB</v>
@@ -13983,7 +13977,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f>+CARGA!A118</f>
         <v>XLE</v>
@@ -14002,7 +13996,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f>+CARGA!A119</f>
         <v>XLF</v>
@@ -14021,7 +14015,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f>+CARGA!A120</f>
         <v>XLI</v>
@@ -14040,7 +14034,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f>+CARGA!A121</f>
         <v>XLK</v>
@@ -14059,7 +14053,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f>+CARGA!A122</f>
         <v>XLP</v>
@@ -14078,7 +14072,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f>+CARGA!A123</f>
         <v>XLU</v>
@@ -14097,7 +14091,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f>+CARGA!A124</f>
         <v>XLV</v>
@@ -14116,7 +14110,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f>+CARGA!A125</f>
         <v>XLY(HB)</v>
@@ -14135,7 +14129,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f>+CARGA!A126</f>
         <v>XME(HB)</v>
@@ -14154,7 +14148,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f>+CARGA!A127</f>
         <v>XRT(HB)</v>
@@ -14173,7 +14167,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <f>+CARGA!A128</f>
         <v>0</v>
@@ -14186,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f>+CARGA!A129</f>
         <v>@DX(D)</v>
@@ -14205,7 +14199,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f>+CARGA!A130</f>
         <v>EURUSD</v>
@@ -14224,7 +14218,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f>+CARGA!A131</f>
         <v>FXB(HB)</v>
@@ -14243,7 +14237,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f>+CARGA!A132</f>
         <v>FXE(HB)</v>
@@ -14262,7 +14256,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f>+CARGA!A133</f>
         <v>FXY(HB)</v>
@@ -14281,7 +14275,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f>+CARGA!A134</f>
         <v>GBPUSD</v>
@@ -14300,7 +14294,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f>+CARGA!A135</f>
         <v>USDMXN</v>
@@ -14319,7 +14313,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f>+CARGA!A136</f>
         <v>UUP</v>
@@ -14338,7 +14332,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <f>+CARGA!A137</f>
         <v>0</v>
@@ -14351,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f>+CARGA!A138</f>
         <v>$BCOM(D)</v>
@@ -14370,7 +14364,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f>+CARGA!A139</f>
         <v>$BCOMGR(D)</v>
@@ -14389,7 +14383,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f>+CARGA!A140</f>
         <v>$BCOMIN(D)</v>
@@ -14408,7 +14402,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f>+CARGA!A141</f>
         <v>$BCOMPR(D)</v>
@@ -14427,7 +14421,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f>+CARGA!A142</f>
         <v>$BCOMSO(D)</v>
@@ -14446,7 +14440,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f>+CARGA!A143</f>
         <v>@C(D)</v>
@@ -14465,7 +14459,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f>+CARGA!A144</f>
         <v>@CC(D)</v>
@@ -14484,7 +14478,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f>+CARGA!A145</f>
         <v>@CL(D)</v>
@@ -14503,7 +14497,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f>+CARGA!A146</f>
         <v>@CT(D)</v>
@@ -14522,7 +14516,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f>+CARGA!A147</f>
         <v>@GC(D)</v>
@@ -14541,7 +14535,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f>+CARGA!A148</f>
         <v>@HG(D)</v>
@@ -14560,7 +14554,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f>+CARGA!A149</f>
         <v>@HO(D)</v>
@@ -14579,7 +14573,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f>+CARGA!A150</f>
         <v>@KC(D)</v>
@@ -14598,7 +14592,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f>+CARGA!A151</f>
         <v>@LC(D)</v>
@@ -14617,7 +14611,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f>+CARGA!A152</f>
         <v>@LH(D)</v>
@@ -14636,7 +14630,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f>+CARGA!A153</f>
         <v>@NG(D)</v>
@@ -14655,7 +14649,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>408</v>
       </c>
@@ -14673,7 +14667,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f>+CARGA!A155</f>
         <v>@OJ(D)</v>
@@ -14692,7 +14686,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f>+CARGA!A156</f>
         <v>@PB(D)</v>
@@ -14711,7 +14705,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f>+CARGA!A157</f>
         <v>@S(D)</v>
@@ -14730,7 +14724,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f>+CARGA!A158</f>
         <v>@SB(D)</v>
@@ -14749,7 +14743,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f>+CARGA!A159</f>
         <v>@SI(D)</v>
@@ -14768,7 +14762,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f>+CARGA!A160</f>
         <v>@W(D)</v>
@@ -14787,7 +14781,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f>+CARGA!A161</f>
         <v>SLX(HB)</v>
@@ -14806,7 +14800,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <f>+CARGA!A162</f>
         <v>0</v>
@@ -14822,7 +14816,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f>+CARGA!A163</f>
         <v>CARZ(HB)</v>
@@ -14841,7 +14835,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f>+CARGA!A164</f>
         <v>HST</v>
@@ -14860,7 +14854,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f>+CARGA!A165</f>
         <v>PEJ(HB)</v>
@@ -14879,7 +14873,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <f>+CARGA!A166</f>
         <v>0</v>
@@ -14889,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <f>+CARGA!A167</f>
         <v>0</v>
@@ -14899,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <f>+CARGA!A168</f>
         <v>0</v>
@@ -14909,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <f>+CARGA!A169</f>
         <v>0</v>
@@ -14919,7 +14913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <f>+CARGA!A170</f>
         <v>0</v>
@@ -14929,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <f>+CARGA!A171</f>
         <v>0</v>
@@ -14939,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <f>+CARGA!A172</f>
         <v>0</v>
@@ -14949,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <f>+CARGA!A173</f>
         <v>0</v>
@@ -14959,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <f>+CARGA!A174</f>
         <v>0</v>
@@ -14969,7 +14963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <f>+CARGA!A175</f>
         <v>0</v>
@@ -14979,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <f>+CARGA!A176</f>
         <v>0</v>
@@ -14989,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <f>+CARGA!A177</f>
         <v>0</v>
@@ -14999,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <f>+CARGA!A178</f>
         <v>0</v>
@@ -15009,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <f>+CARGA!A179</f>
         <v>0</v>
@@ -15019,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <f>+CARGA!A180</f>
         <v>0</v>
@@ -15029,7 +15023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <f>+CARGA!A181</f>
         <v>0</v>
@@ -15039,7 +15033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <f>+CARGA!A182</f>
         <v>0</v>
@@ -15049,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <f>+CARGA!A183</f>
         <v>0</v>
@@ -15059,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <f>+CARGA!A184</f>
         <v>0</v>
@@ -15069,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <f>+CARGA!A185</f>
         <v>0</v>
@@ -15079,7 +15073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <f>+CARGA!A186</f>
         <v>0</v>
@@ -15089,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <f>+CARGA!A187</f>
         <v>0</v>
@@ -15099,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <f>+CARGA!A188</f>
         <v>0</v>
@@ -15109,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <f>+CARGA!A189</f>
         <v>0</v>
@@ -15119,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <f>+CARGA!A190</f>
         <v>0</v>
@@ -15129,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <f>+CARGA!A191</f>
         <v>0</v>
@@ -15139,7 +15133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <f>+CARGA!A192</f>
         <v>0</v>
@@ -15149,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <f>+CARGA!A193</f>
         <v>0</v>
@@ -15159,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <f>+CARGA!A194</f>
         <v>0</v>
@@ -15169,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <f>+CARGA!A195</f>
         <v>0</v>
@@ -15179,7 +15173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <f>+CARGA!A196</f>
         <v>0</v>
@@ -15189,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <f>+CARGA!A197</f>
         <v>0</v>
@@ -15199,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <f>+CARGA!A198</f>
         <v>0</v>
@@ -15209,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <f>+CARGA!A199</f>
         <v>0</v>
@@ -15219,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <f>+CARGA!A200</f>
         <v>0</v>
@@ -15229,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <f>+CARGA!A201</f>
         <v>0</v>
@@ -15239,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <f>+CARGA!A202</f>
         <v>0</v>
@@ -15249,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <f>+CARGA!A203</f>
         <v>0</v>
@@ -15259,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <f>+CARGA!A204</f>
         <v>0</v>
@@ -15269,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <f>+CARGA!A205</f>
         <v>0</v>
@@ -15279,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <f>+CARGA!A206</f>
         <v>0</v>
@@ -15289,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <f>+CARGA!A207</f>
         <v>0</v>
@@ -15299,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <f>+CARGA!A208</f>
         <v>0</v>
@@ -15309,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <f>+CARGA!A209</f>
         <v>0</v>
@@ -15319,7 +15313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <f>+CARGA!A210</f>
         <v>0</v>
@@ -15329,7 +15323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <f>+CARGA!A211</f>
         <v>0</v>
@@ -15339,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <f>+CARGA!A212</f>
         <v>0</v>
@@ -15349,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <f>+CARGA!A213</f>
         <v>0</v>
@@ -15359,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <f>+CARGA!A214</f>
         <v>0</v>
@@ -15369,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <f>+CARGA!A215</f>
         <v>0</v>
@@ -15379,7 +15373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <f>+CARGA!A216</f>
         <v>0</v>
@@ -15389,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <f>+CARGA!A217</f>
         <v>0</v>
@@ -15399,7 +15393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <f>+CARGA!A218</f>
         <v>0</v>
@@ -15409,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <f>+CARGA!A219</f>
         <v>0</v>
@@ -15419,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <f>+CARGA!A220</f>
         <v>0</v>
@@ -15429,7 +15423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <f>+CARGA!A221</f>
         <v>0</v>
@@ -15439,7 +15433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <f>+CARGA!A222</f>
         <v>0</v>
@@ -15449,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <f>+CARGA!A223</f>
         <v>0</v>
@@ -15459,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <f>+CARGA!A224</f>
         <v>0</v>
@@ -15469,7 +15463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <f>+CARGA!A225</f>
         <v>0</v>
@@ -15479,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <f>+CARGA!A226</f>
         <v>0</v>
@@ -15489,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <f>+CARGA!A227</f>
         <v>0</v>
@@ -15499,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <f>+CARGA!A228</f>
         <v>0</v>
@@ -15509,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <f>+CARGA!A229</f>
         <v>0</v>
@@ -15519,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <f>+CARGA!A230</f>
         <v>0</v>
@@ -15529,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <f>+CARGA!A231</f>
         <v>0</v>
@@ -15539,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <f>+CARGA!A232</f>
         <v>0</v>
@@ -15549,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <f>+CARGA!A233</f>
         <v>0</v>
@@ -15559,7 +15553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <f>+CARGA!A234</f>
         <v>0</v>
@@ -15569,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <f>+CARGA!A235</f>
         <v>0</v>
@@ -15579,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <f>+CARGA!A236</f>
         <v>0</v>
@@ -15589,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <f>+CARGA!A237</f>
         <v>0</v>
@@ -15599,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <f>+CARGA!A238</f>
         <v>0</v>
@@ -15609,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <f>+CARGA!A239</f>
         <v>0</v>
@@ -15619,7 +15613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <f>+CARGA!A240</f>
         <v>0</v>
@@ -15629,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <f>+CARGA!A241</f>
         <v>0</v>
@@ -15639,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <f>+CARGA!A242</f>
         <v>0</v>
@@ -15649,7 +15643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <f>+CARGA!A243</f>
         <v>0</v>
@@ -15659,7 +15653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <f>+CARGA!A244</f>
         <v>0</v>
@@ -15669,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <f>+CARGA!A245</f>
         <v>0</v>
@@ -15679,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <f>+CARGA!A246</f>
         <v>0</v>
@@ -15689,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <f>+CARGA!A247</f>
         <v>0</v>
@@ -15699,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <f>+CARGA!A248</f>
         <v>0</v>
@@ -15709,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <f>+CARGA!A249</f>
         <v>0</v>
@@ -15719,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <f>+CARGA!A250</f>
         <v>0</v>
@@ -15729,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <f>+CARGA!A251</f>
         <v>0</v>
@@ -15739,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <f>+CARGA!A252</f>
         <v>0</v>
@@ -15749,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <f>+CARGA!A253</f>
         <v>0</v>
@@ -15759,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <f>+CARGA!A254</f>
         <v>0</v>
@@ -15769,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <f>+CARGA!A255</f>
         <v>0</v>
@@ -15779,7 +15773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <f>+CARGA!A256</f>
         <v>0</v>
@@ -15789,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <f>+CARGA!A257</f>
         <v>0</v>
@@ -15799,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <f>+CARGA!A258</f>
         <v>0</v>
@@ -15809,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <f>+CARGA!A259</f>
         <v>0</v>
@@ -15819,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <f>+CARGA!A260</f>
         <v>0</v>
@@ -15829,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <f>+CARGA!A261</f>
         <v>0</v>
@@ -15839,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <f>+CARGA!A262</f>
         <v>0</v>
@@ -15849,7 +15843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <f>+CARGA!A263</f>
         <v>0</v>
@@ -15859,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <f>+CARGA!A264</f>
         <v>0</v>
@@ -15869,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <f>+CARGA!A265</f>
         <v>0</v>
@@ -15879,7 +15873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <f>+CARGA!A266</f>
         <v>0</v>
@@ -15889,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <f>+CARGA!A267</f>
         <v>0</v>
@@ -15899,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <f>+CARGA!A268</f>
         <v>0</v>
@@ -15909,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <f>+CARGA!A269</f>
         <v>0</v>
@@ -15919,7 +15913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <f>+CARGA!A270</f>
         <v>0</v>
@@ -15929,7 +15923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <f>+CARGA!A271</f>
         <v>0</v>
@@ -15939,7 +15933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <f>+CARGA!A272</f>
         <v>0</v>
@@ -15949,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <f>+CARGA!A273</f>
         <v>0</v>
@@ -15959,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <f>+CARGA!A274</f>
         <v>0</v>
@@ -15969,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <f>+CARGA!A275</f>
         <v>0</v>
@@ -15979,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <f>+CARGA!A276</f>
         <v>0</v>
@@ -15989,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <f>+CARGA!A277</f>
         <v>0</v>
@@ -15999,7 +15993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <f>+CARGA!A278</f>
         <v>0</v>
@@ -16009,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <f>+CARGA!A279</f>
         <v>0</v>
@@ -16019,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <f>+CARGA!A280</f>
         <v>0</v>
@@ -16029,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <f>+CARGA!A281</f>
         <v>0</v>
@@ -16039,7 +16033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <f>+CARGA!A282</f>
         <v>0</v>
@@ -16049,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <f>+CARGA!A283</f>
         <v>0</v>
@@ -16059,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <f>+CARGA!A284</f>
         <v>0</v>
@@ -16069,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <f>+CARGA!A285</f>
         <v>0</v>
@@ -16079,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <f>+CARGA!A286</f>
         <v>0</v>
@@ -16089,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <f>+CARGA!A287</f>
         <v>0</v>
@@ -16099,7 +16093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <f>+CARGA!A288</f>
         <v>0</v>
@@ -16109,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <f>+CARGA!A289</f>
         <v>0</v>
@@ -16119,7 +16113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <f>+CARGA!A290</f>
         <v>0</v>
@@ -16129,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <f>+CARGA!A291</f>
         <v>0</v>
@@ -16139,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <f>+CARGA!A292</f>
         <v>0</v>
@@ -16149,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <f>+CARGA!A293</f>
         <v>0</v>
@@ -16159,7 +16153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <f>+CARGA!A294</f>
         <v>0</v>
@@ -16169,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <f>+CARGA!A295</f>
         <v>0</v>
@@ -16179,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <f>+CARGA!A296</f>
         <v>0</v>
@@ -16189,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <f>+CARGA!A297</f>
         <v>0</v>
@@ -16199,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <f>+CARGA!A298</f>
         <v>0</v>
@@ -16209,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <f>+CARGA!A299</f>
         <v>0</v>
@@ -16219,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <f>+CARGA!A300</f>
         <v>0</v>
@@ -16229,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <f>+CARGA!A301</f>
         <v>0</v>
@@ -16239,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <f>+CARGA!A302</f>
         <v>0</v>
@@ -16249,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <f>+CARGA!A303</f>
         <v>0</v>
@@ -16259,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <f>+CARGA!A304</f>
         <v>0</v>
@@ -16269,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <f>+CARGA!A305</f>
         <v>0</v>
@@ -16279,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <f>+CARGA!A306</f>
         <v>0</v>
@@ -16289,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <f>+CARGA!A307</f>
         <v>0</v>
@@ -16299,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <f>+CARGA!A308</f>
         <v>0</v>
@@ -16309,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <f>+CARGA!A309</f>
         <v>0</v>
@@ -16319,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <f>+CARGA!A310</f>
         <v>0</v>
@@ -16329,7 +16323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <f>+CARGA!A311</f>
         <v>0</v>
@@ -16339,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <f>+CARGA!A312</f>
         <v>0</v>
@@ -16349,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <f>+CARGA!A313</f>
         <v>0</v>
@@ -16359,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <f>+CARGA!A314</f>
         <v>0</v>
@@ -16369,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <f>+CARGA!A315</f>
         <v>0</v>
@@ -16379,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <f>+CARGA!A316</f>
         <v>0</v>
@@ -16389,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <f>+CARGA!A317</f>
         <v>0</v>
@@ -16399,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <f>+CARGA!A318</f>
         <v>0</v>
@@ -16409,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <f>+CARGA!A319</f>
         <v>0</v>
@@ -16419,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <f>+CARGA!A320</f>
         <v>0</v>
@@ -16429,7 +16423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <f>+CARGA!A321</f>
         <v>0</v>
@@ -16439,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <f>+CARGA!A322</f>
         <v>0</v>
@@ -16449,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <f>+CARGA!A323</f>
         <v>0</v>
@@ -16459,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <f>+CARGA!A324</f>
         <v>0</v>
@@ -16469,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <f>+CARGA!A325</f>
         <v>0</v>
@@ -16479,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <f>+CARGA!A326</f>
         <v>0</v>
@@ -16489,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <f>+CARGA!A327</f>
         <v>0</v>
@@ -16499,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <f>+CARGA!A328</f>
         <v>0</v>
@@ -16509,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <f>+CARGA!A329</f>
         <v>0</v>
@@ -16519,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <f>+CARGA!A330</f>
         <v>0</v>
@@ -16529,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <f>+CARGA!A331</f>
         <v>0</v>
@@ -16539,7 +16533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <f>+CARGA!A332</f>
         <v>0</v>
@@ -16549,7 +16543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <f>+CARGA!A333</f>
         <v>0</v>
@@ -16559,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <f>+CARGA!A334</f>
         <v>0</v>
@@ -16569,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <f>+CARGA!A335</f>
         <v>0</v>
@@ -16579,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <f>+CARGA!A336</f>
         <v>0</v>
@@ -16589,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <f>+CARGA!A337</f>
         <v>0</v>
@@ -16599,7 +16593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <f>+CARGA!A338</f>
         <v>0</v>
@@ -16609,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <f>+CARGA!A339</f>
         <v>0</v>
@@ -16619,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <f>+CARGA!A340</f>
         <v>0</v>
@@ -16629,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <f>+CARGA!A341</f>
         <v>0</v>
@@ -16639,7 +16633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <f>+CARGA!A342</f>
         <v>0</v>
@@ -16649,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <f>+CARGA!A343</f>
         <v>0</v>
@@ -16659,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <f>+CARGA!A344</f>
         <v>0</v>
@@ -16669,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <f>+CARGA!A345</f>
         <v>0</v>
@@ -16679,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <f>+CARGA!A346</f>
         <v>0</v>
@@ -16689,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <f>+CARGA!A347</f>
         <v>0</v>
@@ -16699,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <f>+CARGA!A348</f>
         <v>0</v>
@@ -16709,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <f>+CARGA!A349</f>
         <v>0</v>
@@ -16719,7 +16713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <f>+CARGA!A350</f>
         <v>0</v>
@@ -16729,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <f>+CARGA!A351</f>
         <v>0</v>
@@ -16739,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <f>+CARGA!A352</f>
         <v>0</v>
@@ -16749,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <f>+CARGA!A353</f>
         <v>0</v>
@@ -16759,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <f>+CARGA!A354</f>
         <v>0</v>
@@ -16769,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <f>+CARGA!A355</f>
         <v>0</v>
@@ -16779,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <f>+CARGA!A356</f>
         <v>0</v>
@@ -16789,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <f>+CARGA!A357</f>
         <v>0</v>
@@ -16799,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <f>+CARGA!A358</f>
         <v>0</v>
@@ -16809,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <f>+CARGA!A359</f>
         <v>0</v>
@@ -16819,7 +16813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <f>+CARGA!A360</f>
         <v>0</v>
@@ -16829,7 +16823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <f>+CARGA!A361</f>
         <v>0</v>
@@ -16839,7 +16833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <f>+CARGA!A362</f>
         <v>0</v>
@@ -16849,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <f>+CARGA!A363</f>
         <v>0</v>
@@ -16859,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <f>+CARGA!A364</f>
         <v>0</v>
@@ -16869,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <f>+CARGA!A365</f>
         <v>0</v>
@@ -16879,7 +16873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <f>+CARGA!A366</f>
         <v>0</v>
@@ -16889,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <f>+CARGA!A367</f>
         <v>0</v>
@@ -16899,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <f>+CARGA!A368</f>
         <v>0</v>
@@ -16909,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <f>+CARGA!A369</f>
         <v>0</v>
@@ -16919,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <f>+CARGA!A370</f>
         <v>0</v>
@@ -16929,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <f>+CARGA!A371</f>
         <v>0</v>
@@ -16939,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <f>+CARGA!A372</f>
         <v>0</v>
@@ -16949,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <f>+CARGA!A373</f>
         <v>0</v>
@@ -16959,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <f>+CARGA!A374</f>
         <v>0</v>
@@ -16969,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <f>+CARGA!A375</f>
         <v>0</v>
@@ -16979,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <f>+CARGA!A376</f>
         <v>0</v>
@@ -16989,7 +16983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <f>+CARGA!A377</f>
         <v>0</v>
@@ -16999,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <f>+CARGA!A378</f>
         <v>0</v>
@@ -17009,7 +17003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <f>+CARGA!A379</f>
         <v>0</v>
@@ -17019,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <f>+CARGA!A380</f>
         <v>0</v>
@@ -17029,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <f>+CARGA!A381</f>
         <v>0</v>
@@ -17039,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <f>+CARGA!A382</f>
         <v>0</v>
@@ -17049,7 +17043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <f>+CARGA!A383</f>
         <v>0</v>
@@ -17059,7 +17053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <f>+CARGA!A384</f>
         <v>0</v>
@@ -17069,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <f>+CARGA!A385</f>
         <v>0</v>
@@ -17079,7 +17073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <f>+CARGA!A386</f>
         <v>0</v>
@@ -17089,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <f>+CARGA!A387</f>
         <v>0</v>
@@ -17099,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <f>+CARGA!A388</f>
         <v>0</v>
@@ -17109,7 +17103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <f>+CARGA!A389</f>
         <v>0</v>
@@ -17119,7 +17113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <f>+CARGA!A390</f>
         <v>0</v>
@@ -17129,7 +17123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <f>+CARGA!A391</f>
         <v>0</v>
@@ -17139,7 +17133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <f>+CARGA!A392</f>
         <v>0</v>
@@ -17149,7 +17143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <f>+CARGA!A393</f>
         <v>0</v>
@@ -17159,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <f>+CARGA!A394</f>
         <v>0</v>
@@ -17169,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <f>+CARGA!A395</f>
         <v>0</v>
@@ -17179,7 +17173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <f>+CARGA!A396</f>
         <v>0</v>
@@ -17189,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <f>+CARGA!A397</f>
         <v>0</v>
@@ -17199,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <f>+CARGA!A398</f>
         <v>0</v>
@@ -17209,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <f>+CARGA!A399</f>
         <v>0</v>
@@ -17219,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <f>+CARGA!A400</f>
         <v>0</v>
@@ -17229,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>467</v>
       </c>
@@ -17425,12 +17419,12 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>69</v>
       </c>
@@ -17459,7 +17453,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>2990</v>
       </c>
@@ -17479,7 +17473,7 @@
         <v>13429</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>2986</v>
       </c>
@@ -17499,7 +17493,7 @@
         <v>4173.12</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>2988</v>
       </c>
@@ -17519,7 +17513,7 @@
         <v>34382.129999999997</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>312</v>
       </c>
@@ -17539,7 +17533,7 @@
         <v>1.2145999999999999</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>2965</v>
       </c>
@@ -17559,10 +17553,10 @@
         <v>1.4101999999999999</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F10" s="7"/>
     </row>
   </sheetData>
@@ -17572,21 +17566,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F43D394-5AEF-4698-B42D-3F8905AF3BA1}">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B248" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268:XFD268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>302</v>
       </c>
@@ -17603,7 +17597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -17620,7 +17614,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>472</v>
       </c>
@@ -17637,7 +17631,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -17654,7 +17648,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -17671,7 +17665,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -17688,7 +17682,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>175</v>
       </c>
@@ -17705,7 +17699,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -17722,7 +17716,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -17739,7 +17733,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -17756,7 +17750,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -17773,7 +17767,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -17790,7 +17784,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -17807,7 +17801,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -17824,7 +17818,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -17841,7 +17835,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>196</v>
       </c>
@@ -17858,7 +17852,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -17875,7 +17869,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -17892,7 +17886,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -17909,7 +17903,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -17926,7 +17920,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -17943,7 +17937,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>202</v>
       </c>
@@ -17960,7 +17954,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -17977,7 +17971,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -17994,7 +17988,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -18011,7 +18005,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -18028,7 +18022,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -18045,7 +18039,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>514</v>
       </c>
@@ -18062,7 +18056,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>207</v>
       </c>
@@ -18079,7 +18073,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>529</v>
       </c>
@@ -18096,7 +18090,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>520</v>
       </c>
@@ -18113,7 +18107,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>502</v>
       </c>
@@ -18130,7 +18124,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>526</v>
       </c>
@@ -18147,7 +18141,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>517</v>
       </c>
@@ -18164,7 +18158,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>576</v>
       </c>
@@ -18181,7 +18175,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -18198,7 +18192,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>539</v>
       </c>
@@ -18215,7 +18209,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>554</v>
       </c>
@@ -18232,7 +18226,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>552</v>
       </c>
@@ -18249,7 +18243,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>525</v>
       </c>
@@ -18266,7 +18260,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -18283,7 +18277,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -18300,7 +18294,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>312</v>
       </c>
@@ -18317,7 +18311,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>510</v>
       </c>
@@ -18334,7 +18328,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>553</v>
       </c>
@@ -18351,7 +18345,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>313</v>
       </c>
@@ -18368,7 +18362,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -18385,7 +18379,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>571</v>
       </c>
@@ -18402,7 +18396,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>545</v>
       </c>
@@ -18419,7 +18413,7 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>542</v>
       </c>
@@ -18436,7 +18430,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>551</v>
       </c>
@@ -18453,7 +18447,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>315</v>
       </c>
@@ -18470,7 +18464,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>254</v>
       </c>
@@ -18487,7 +18481,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>467</v>
       </c>
@@ -18504,7 +18498,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>549</v>
       </c>
@@ -18521,7 +18515,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>528</v>
       </c>
@@ -18538,7 +18532,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -18555,7 +18549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>210</v>
       </c>
@@ -18572,7 +18566,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -18589,7 +18583,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -18606,7 +18600,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>483</v>
       </c>
@@ -18623,7 +18617,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>501</v>
       </c>
@@ -18640,7 +18634,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -18657,7 +18651,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>490</v>
       </c>
@@ -18674,7 +18668,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>211</v>
       </c>
@@ -18691,7 +18685,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>422</v>
       </c>
@@ -18708,7 +18702,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>212</v>
       </c>
@@ -18725,7 +18719,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>213</v>
       </c>
@@ -18742,7 +18736,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>565</v>
       </c>
@@ -18759,7 +18753,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>573</v>
       </c>
@@ -18776,7 +18770,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>532</v>
       </c>
@@ -18793,7 +18787,7 @@
         <v>3951</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>521</v>
       </c>
@@ -18810,7 +18804,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -18827,7 +18821,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>423</v>
       </c>
@@ -18844,7 +18838,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>418</v>
       </c>
@@ -18861,7 +18855,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>214</v>
       </c>
@@ -18878,7 +18872,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>250</v>
       </c>
@@ -18895,7 +18889,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>419</v>
       </c>
@@ -18912,7 +18906,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -18929,7 +18923,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>259</v>
       </c>
@@ -18946,7 +18940,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>452</v>
       </c>
@@ -18963,7 +18957,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -18980,7 +18974,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>453</v>
       </c>
@@ -18997,7 +18991,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -19014,7 +19008,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>262</v>
       </c>
@@ -19031,7 +19025,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>252</v>
       </c>
@@ -19048,7 +19042,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>438</v>
       </c>
@@ -19065,7 +19059,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>216</v>
       </c>
@@ -19082,7 +19076,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>454</v>
       </c>
@@ -19099,7 +19093,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>333</v>
       </c>
@@ -19116,7 +19110,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>217</v>
       </c>
@@ -19133,7 +19127,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>218</v>
       </c>
@@ -19150,7 +19144,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>414</v>
       </c>
@@ -19167,7 +19161,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>455</v>
       </c>
@@ -19184,7 +19178,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -19201,7 +19195,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>456</v>
       </c>
@@ -19218,7 +19212,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>457</v>
       </c>
@@ -19235,7 +19229,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -19252,7 +19246,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>267</v>
       </c>
@@ -19269,7 +19263,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>458</v>
       </c>
@@ -19286,7 +19280,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>269</v>
       </c>
@@ -19303,7 +19297,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>424</v>
       </c>
@@ -19320,7 +19314,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>435</v>
       </c>
@@ -19337,7 +19331,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>537</v>
       </c>
@@ -19354,7 +19348,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>248</v>
       </c>
@@ -19371,7 +19365,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>536</v>
       </c>
@@ -19388,7 +19382,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>567</v>
       </c>
@@ -19405,7 +19399,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>530</v>
       </c>
@@ -19422,7 +19416,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>240</v>
       </c>
@@ -19439,7 +19433,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>249</v>
       </c>
@@ -19456,7 +19450,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>271</v>
       </c>
@@ -19473,7 +19467,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -19490,7 +19484,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>164</v>
       </c>
@@ -19507,7 +19501,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>272</v>
       </c>
@@ -19524,7 +19518,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>219</v>
       </c>
@@ -19541,7 +19535,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>547</v>
       </c>
@@ -19558,7 +19552,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>220</v>
       </c>
@@ -19575,7 +19569,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -19592,7 +19586,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>221</v>
       </c>
@@ -19609,7 +19603,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>222</v>
       </c>
@@ -19626,7 +19620,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>223</v>
       </c>
@@ -19643,7 +19637,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>301</v>
       </c>
@@ -19660,7 +19654,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>572</v>
       </c>
@@ -19677,7 +19671,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>566</v>
       </c>
@@ -19694,7 +19688,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -19711,7 +19705,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>540</v>
       </c>
@@ -19728,7 +19722,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>459</v>
       </c>
@@ -19745,7 +19739,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>562</v>
       </c>
@@ -19762,7 +19756,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>425</v>
       </c>
@@ -19779,7 +19773,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>515</v>
       </c>
@@ -19796,7 +19790,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>575</v>
       </c>
@@ -19813,7 +19807,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>560</v>
       </c>
@@ -19830,7 +19824,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>420</v>
       </c>
@@ -19847,7 +19841,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>243</v>
       </c>
@@ -19864,7 +19858,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>504</v>
       </c>
@@ -19881,7 +19875,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>507</v>
       </c>
@@ -19898,7 +19892,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>480</v>
       </c>
@@ -19915,7 +19909,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>499</v>
       </c>
@@ -19932,7 +19926,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -19949,7 +19943,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>460</v>
       </c>
@@ -19966,7 +19960,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>225</v>
       </c>
@@ -19983,7 +19977,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>461</v>
       </c>
@@ -20000,7 +19994,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>534</v>
       </c>
@@ -20017,7 +20011,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -20034,7 +20028,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>462</v>
       </c>
@@ -20051,7 +20045,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>226</v>
       </c>
@@ -20068,7 +20062,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>488</v>
       </c>
@@ -20085,7 +20079,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>485</v>
       </c>
@@ -20102,7 +20096,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>486</v>
       </c>
@@ -20119,7 +20113,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>482</v>
       </c>
@@ -20136,7 +20130,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>481</v>
       </c>
@@ -20153,7 +20147,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>277</v>
       </c>
@@ -20170,7 +20164,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>493</v>
       </c>
@@ -20187,7 +20181,7 @@
         <v>3912</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>498</v>
       </c>
@@ -20204,7 +20198,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>494</v>
       </c>
@@ -20221,7 +20215,7 @@
         <v>3913</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>487</v>
       </c>
@@ -20238,7 +20232,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>491</v>
       </c>
@@ -20255,7 +20249,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>496</v>
       </c>
@@ -20272,7 +20266,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>227</v>
       </c>
@@ -20289,7 +20283,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>228</v>
       </c>
@@ -20306,7 +20300,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>244</v>
       </c>
@@ -20323,7 +20317,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>229</v>
       </c>
@@ -20340,7 +20334,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>531</v>
       </c>
@@ -20357,7 +20351,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>522</v>
       </c>
@@ -20374,7 +20368,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -20391,7 +20385,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>185</v>
       </c>
@@ -20408,7 +20402,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>574</v>
       </c>
@@ -20425,7 +20419,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>519</v>
       </c>
@@ -20442,7 +20436,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>478</v>
       </c>
@@ -20459,7 +20453,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>230</v>
       </c>
@@ -20476,7 +20470,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>463</v>
       </c>
@@ -20493,7 +20487,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>523</v>
       </c>
@@ -20510,7 +20504,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>231</v>
       </c>
@@ -20527,7 +20521,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>436</v>
       </c>
@@ -20544,7 +20538,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>546</v>
       </c>
@@ -20561,7 +20555,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>516</v>
       </c>
@@ -20578,7 +20572,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>416</v>
       </c>
@@ -20595,7 +20589,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>500</v>
       </c>
@@ -20612,7 +20606,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>232</v>
       </c>
@@ -20629,7 +20623,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>281</v>
       </c>
@@ -20646,7 +20640,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>556</v>
       </c>
@@ -20663,7 +20657,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>282</v>
       </c>
@@ -20680,7 +20674,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>283</v>
       </c>
@@ -20697,7 +20691,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>524</v>
       </c>
@@ -20714,7 +20708,7 @@
         <v>3943</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>538</v>
       </c>
@@ -20731,7 +20725,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>558</v>
       </c>
@@ -20748,7 +20742,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>233</v>
       </c>
@@ -20765,7 +20759,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>513</v>
       </c>
@@ -20782,7 +20776,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>234</v>
       </c>
@@ -20799,7 +20793,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>235</v>
       </c>
@@ -20816,7 +20810,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>527</v>
       </c>
@@ -20833,7 +20827,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>443</v>
       </c>
@@ -20850,7 +20844,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>443</v>
       </c>
@@ -20867,7 +20861,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>469</v>
       </c>
@@ -20884,7 +20878,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>563</v>
       </c>
@@ -20901,7 +20895,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>110</v>
       </c>
@@ -20918,7 +20912,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>236</v>
       </c>
@@ -20935,7 +20929,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>237</v>
       </c>
@@ -20952,7 +20946,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>535</v>
       </c>
@@ -20969,7 +20963,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>548</v>
       </c>
@@ -20986,7 +20980,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>114</v>
       </c>
@@ -21003,7 +20997,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>116</v>
       </c>
@@ -21020,7 +21014,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>118</v>
       </c>
@@ -21037,7 +21031,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>67</v>
       </c>
@@ -21054,7 +21048,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>284</v>
       </c>
@@ -21071,7 +21065,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>518</v>
       </c>
@@ -21088,7 +21082,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>373</v>
       </c>
@@ -21105,7 +21099,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>245</v>
       </c>
@@ -21122,7 +21116,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>285</v>
       </c>
@@ -21139,7 +21133,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>246</v>
       </c>
@@ -21156,7 +21150,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>286</v>
       </c>
@@ -21173,7 +21167,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>484</v>
       </c>
@@ -21190,7 +21184,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>495</v>
       </c>
@@ -21207,7 +21201,7 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>544</v>
       </c>
@@ -21224,7 +21218,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>559</v>
       </c>
@@ -21241,7 +21235,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>569</v>
       </c>
@@ -21258,7 +21252,7 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>376</v>
       </c>
@@ -21275,7 +21269,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>541</v>
       </c>
@@ -21292,7 +21286,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -21309,7 +21303,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>506</v>
       </c>
@@ -21326,7 +21320,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>505</v>
       </c>
@@ -21343,7 +21337,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>512</v>
       </c>
@@ -21360,7 +21354,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>287</v>
       </c>
@@ -21377,7 +21371,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>492</v>
       </c>
@@ -21394,7 +21388,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>417</v>
       </c>
@@ -21411,7 +21405,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>426</v>
       </c>
@@ -21428,7 +21422,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>557</v>
       </c>
@@ -21445,7 +21439,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>561</v>
       </c>
@@ -21462,7 +21456,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>475</v>
       </c>
@@ -21479,7 +21473,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -21496,7 +21490,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>550</v>
       </c>
@@ -21513,7 +21507,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>379</v>
       </c>
@@ -21530,7 +21524,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>166</v>
       </c>
@@ -21547,7 +21541,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>568</v>
       </c>
@@ -21564,7 +21558,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>543</v>
       </c>
@@ -21581,7 +21575,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>389</v>
       </c>
@@ -21598,7 +21592,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>570</v>
       </c>
@@ -21615,7 +21609,7 @@
         <v>3989</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>555</v>
       </c>
@@ -21632,7 +21626,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>489</v>
       </c>
@@ -21649,7 +21643,7 @@
         <v>3908</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>564</v>
       </c>
@@ -21666,7 +21660,7 @@
         <v>3983</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>437</v>
       </c>
@@ -21683,7 +21677,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>289</v>
       </c>
@@ -21700,7 +21694,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>251</v>
       </c>
@@ -21717,7 +21711,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>238</v>
       </c>
@@ -21734,7 +21728,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>509</v>
       </c>
@@ -21751,7 +21745,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>503</v>
       </c>
@@ -21768,7 +21762,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>533</v>
       </c>
@@ -21785,7 +21779,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>130</v>
       </c>
@@ -21802,7 +21796,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>464</v>
       </c>
@@ -21819,7 +21813,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>239</v>
       </c>
@@ -21836,7 +21830,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>291</v>
       </c>
@@ -21853,7 +21847,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>497</v>
       </c>
@@ -21870,7 +21864,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>292</v>
       </c>
@@ -21887,7 +21881,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>293</v>
       </c>
@@ -21904,7 +21898,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>294</v>
       </c>
@@ -21921,7 +21915,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>295</v>
       </c>
@@ -21938,7 +21932,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>296</v>
       </c>
@@ -21955,7 +21949,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>508</v>
       </c>
@@ -21972,7 +21966,7 @@
         <v>3927</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>297</v>
       </c>
@@ -21989,7 +21983,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>298</v>
       </c>
@@ -22006,7 +22000,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>465</v>
       </c>
@@ -22023,7 +22017,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>444</v>
       </c>
@@ -22040,7 +22034,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>427</v>
       </c>
@@ -22057,7 +22051,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>408</v>
       </c>
@@ -22074,7 +22068,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>674</v>
       </c>
@@ -22091,7 +22085,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>676</v>
       </c>
@@ -22108,7 +22102,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>679</v>
       </c>
@@ -22123,23 +22117,6 @@
       </c>
       <c r="E267">
         <v>4021</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>680</v>
-      </c>
-      <c r="B268" t="s">
-        <v>680</v>
-      </c>
-      <c r="C268" t="s">
-        <v>307</v>
-      </c>
-      <c r="D268" t="s">
-        <v>681</v>
-      </c>
-      <c r="E268">
-        <v>4018</v>
       </c>
     </row>
   </sheetData>
@@ -22161,13 +22138,33 @@
       <selection activeCell="E5" sqref="E5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc93f9ca-5954-4c13-96dd-d11666463ac3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ec80de7-f90d-47b1-a6c5-32e15d705b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007E1F265188FDFE42A4BFE4006BE0CB8F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3f20ece1fe4014cb8cec65857af77ffc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc93f9ca-5954-4c13-96dd-d11666463ac3" xmlns:ns3="0ec80de7-f90d-47b1-a6c5-32e15d705b6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="080d2f51fdb7caf9b12a5905e7089e4e" ns2:_="" ns3:_="">
     <xsd:import namespace="cc93f9ca-5954-4c13-96dd-d11666463ac3"/>
@@ -22380,27 +22377,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B64ADA-E4CC-4206-BF2B-DFBC6DFAACEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cc93f9ca-5954-4c13-96dd-d11666463ac3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0ec80de7-f90d-47b1-a6c5-32e15d705b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc93f9ca-5954-4c13-96dd-d11666463ac3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0ec80de7-f90d-47b1-a6c5-32e15d705b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4AD189-011A-4FE7-A45D-420A5D084EA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFC67129-34A5-48BD-8B60-3A8533F292A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22417,29 +22419,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4AD189-011A-4FE7-A45D-420A5D084EA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B64ADA-E4CC-4206-BF2B-DFBC6DFAACEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="cc93f9ca-5954-4c13-96dd-d11666463ac3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0ec80de7-f90d-47b1-a6c5-32e15d705b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>